--- a/Python_with_excel/excel_files/Exported.xlsx
+++ b/Python_with_excel/excel_files/Exported.xlsx
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="M7" s="52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N7" s="99" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="M19" s="52" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N19" s="99" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="M23" s="52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N23" s="99" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="M27" s="52" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N27" s="99" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="M33" s="52" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N33" s="99" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="M54" s="52" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N54" s="99" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="M58" s="52" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N58" s="99" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="M63" s="52" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N63" s="99" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="M65" s="52" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N65" s="99" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="M69" s="52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N69" s="99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="M71" s="52" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N71" s="99" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="M78" s="52" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N78" s="99" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="M79" s="52" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N79" s="99" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="M80" s="52" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N80" s="99" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         </is>
       </c>
       <c r="M136" s="52" t="n">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="N136" s="99" t="inlineStr">
         <is>

--- a/Python_with_excel/excel_files/Exported.xlsx
+++ b/Python_with_excel/excel_files/Exported.xlsx
@@ -2518,7 +2518,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="41" t="n"/>
-      <c r="C20" s="16" t="n"/>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D20" s="45" t="inlineStr">
         <is>
           <t>Malik G/S</t>
@@ -2661,7 +2665,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="n"/>
-      <c r="C22" s="16" t="n"/>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>14203-0559554-7</t>
+        </is>
+      </c>
       <c r="D22" s="32" t="inlineStr">
         <is>
           <t>K Mart</t>
@@ -2733,7 +2741,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="41" t="n"/>
-      <c r="C23" s="16" t="n"/>
+      <c r="C23" s="16" t="inlineStr">
+        <is>
+          <t>61101-4259596-1</t>
+        </is>
+      </c>
       <c r="D23" s="45" t="inlineStr">
         <is>
           <t>Mashallah G/S</t>
@@ -2805,7 +2817,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="41" t="n"/>
-      <c r="C24" s="16" t="n"/>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>37405-1203846-2</t>
+        </is>
+      </c>
       <c r="D24" s="45" t="inlineStr">
         <is>
           <t>Kurum Traders</t>
@@ -2877,7 +2893,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="41" t="n"/>
-      <c r="C25" s="16" t="n"/>
+      <c r="C25" s="16" t="inlineStr">
+        <is>
+          <t>61101-8945241-3</t>
+        </is>
+      </c>
       <c r="D25" s="45" t="inlineStr">
         <is>
           <t>Babar Al Meher</t>
@@ -2948,7 +2968,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="n"/>
-      <c r="C26" s="16" t="n"/>
+      <c r="C26" s="16" t="inlineStr">
+        <is>
+          <t>37405-1243621-9</t>
+        </is>
+      </c>
       <c r="D26" s="45" t="inlineStr">
         <is>
           <t>Muneeb Al Mehr</t>
@@ -3090,7 +3114,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="41" t="n"/>
-      <c r="C28" s="16" t="n"/>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>61101-1312965-9</t>
+        </is>
+      </c>
       <c r="D28" s="45" t="inlineStr">
         <is>
           <t>Abdul sattar Trader</t>
@@ -3232,7 +3260,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="41" t="n"/>
-      <c r="C30" s="64" t="n"/>
+      <c r="C30" s="64" t="inlineStr">
+        <is>
+          <t>61101-1824499-9</t>
+        </is>
+      </c>
       <c r="D30" s="45" t="inlineStr">
         <is>
           <t>Sadaat G/S</t>
@@ -3303,7 +3335,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="41" t="n"/>
-      <c r="C31" s="17" t="n"/>
+      <c r="C31" s="17" t="inlineStr">
+        <is>
+          <t>17201-2214026-7</t>
+        </is>
+      </c>
       <c r="D31" s="30" t="inlineStr">
         <is>
           <t>Insaf G/S</t>
@@ -3513,7 +3549,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="41" t="n"/>
-      <c r="C34" s="16" t="n"/>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>13503-7462324-3</t>
+        </is>
+      </c>
       <c r="D34" s="45" t="inlineStr">
         <is>
           <t>Al khair Trader</t>
@@ -3653,7 +3693,11 @@
       <c r="A36" s="52" t="n">
         <v>36</v>
       </c>
-      <c r="C36" s="16" t="n"/>
+      <c r="C36" s="16" t="inlineStr">
+        <is>
+          <t>37405-1903710-9</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Islamabad G/S</t>
@@ -3724,7 +3768,11 @@
         <v>37</v>
       </c>
       <c r="B37" s="41" t="n"/>
-      <c r="C37" s="16" t="n"/>
+      <c r="C37" s="16" t="inlineStr">
+        <is>
+          <t>17201-9672033-7</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>New Four Brother G/S</t>
@@ -3795,7 +3843,11 @@
         <v>38</v>
       </c>
       <c r="B38" s="41" t="n"/>
-      <c r="C38" s="16" t="n"/>
+      <c r="C38" s="16" t="inlineStr">
+        <is>
+          <t>16204-0585197-0</t>
+        </is>
+      </c>
       <c r="D38" s="45" t="inlineStr">
         <is>
           <t>IR Mart</t>
@@ -4167,7 +4219,11 @@
         <v>42</v>
       </c>
       <c r="B42" s="41" t="n"/>
-      <c r="C42" s="17" t="n"/>
+      <c r="C42" s="17" t="inlineStr">
+        <is>
+          <t>37405-2936789-1</t>
+        </is>
+      </c>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Khuram G/S</t>
@@ -4260,7 +4316,11 @@
         <v>43</v>
       </c>
       <c r="B43" s="41" t="n"/>
-      <c r="C43" s="16" t="n"/>
+      <c r="C43" s="16" t="inlineStr">
+        <is>
+          <t>37405-8004953-9</t>
+        </is>
+      </c>
       <c r="D43" s="45" t="inlineStr">
         <is>
           <t>Al syed G/S</t>
@@ -4351,7 +4411,11 @@
         <v>44</v>
       </c>
       <c r="B44" s="41" t="n"/>
-      <c r="C44" s="16" t="n"/>
+      <c r="C44" s="16" t="inlineStr">
+        <is>
+          <t>37405-5129214-2</t>
+        </is>
+      </c>
       <c r="D44" s="45" t="inlineStr">
         <is>
           <t>Friends Super mart</t>
@@ -4533,7 +4597,11 @@
         <v>46</v>
       </c>
       <c r="B46" s="41" t="n"/>
-      <c r="C46" s="64" t="n"/>
+      <c r="C46" s="64" t="inlineStr">
+        <is>
+          <t>61101-1802292-1</t>
+        </is>
+      </c>
       <c r="D46" s="45" t="inlineStr">
         <is>
           <t>Abdul rehman G/S</t>
@@ -4719,7 +4787,11 @@
         <v>48</v>
       </c>
       <c r="B48" s="41" t="n"/>
-      <c r="C48" s="16" t="n"/>
+      <c r="C48" s="16" t="inlineStr">
+        <is>
+          <t>37405-3259423-3</t>
+        </is>
+      </c>
       <c r="D48" s="45" t="inlineStr">
         <is>
           <t>Kabeer utility store</t>
@@ -5091,7 +5163,11 @@
         <v>52</v>
       </c>
       <c r="B52" s="41" t="n"/>
-      <c r="C52" s="16" t="n"/>
+      <c r="C52" s="16" t="inlineStr">
+        <is>
+          <t>61101-2648969-5</t>
+        </is>
+      </c>
       <c r="D52" s="45" t="inlineStr">
         <is>
           <t>Bismillah Traders</t>
@@ -5463,7 +5539,11 @@
         <v>56</v>
       </c>
       <c r="B56" s="41" t="n"/>
-      <c r="C56" s="16" t="n"/>
+      <c r="C56" s="16" t="inlineStr">
+        <is>
+          <t>61101-9442805-1</t>
+        </is>
+      </c>
       <c r="D56" s="45" t="inlineStr">
         <is>
           <t>Awami G/S</t>
@@ -5742,7 +5822,11 @@
         <v>59</v>
       </c>
       <c r="B59" s="41" t="n"/>
-      <c r="C59" s="16" t="n"/>
+      <c r="C59" s="16" t="inlineStr">
+        <is>
+          <t>37405-6037023-1</t>
+        </is>
+      </c>
       <c r="D59" s="32" t="inlineStr">
         <is>
           <t>786 G/S</t>
@@ -5833,7 +5917,11 @@
         <v>60</v>
       </c>
       <c r="B60" s="41" t="n"/>
-      <c r="C60" s="16" t="n"/>
+      <c r="C60" s="16" t="inlineStr">
+        <is>
+          <t>37405-5102398-6</t>
+        </is>
+      </c>
       <c r="D60" s="45" t="inlineStr">
         <is>
           <t>Capital Mart</t>
@@ -6009,7 +6097,11 @@
         <v>62</v>
       </c>
       <c r="B62" s="41" t="n"/>
-      <c r="C62" s="16" t="n"/>
+      <c r="C62" s="16" t="inlineStr">
+        <is>
+          <t>61101-2587158-1</t>
+        </is>
+      </c>
       <c r="D62" s="45" t="inlineStr">
         <is>
           <t>Ghosia G/S</t>
@@ -6095,7 +6187,11 @@
         <v>63</v>
       </c>
       <c r="B63" s="41" t="n"/>
-      <c r="C63" s="16" t="n"/>
+      <c r="C63" s="16" t="inlineStr">
+        <is>
+          <t>17101-0305858-9</t>
+        </is>
+      </c>
       <c r="D63" s="45" t="inlineStr">
         <is>
           <t>Saad G/S</t>
@@ -6975,7 +7071,11 @@
         <v>73</v>
       </c>
       <c r="B73" s="41" t="n"/>
-      <c r="C73" s="16" t="n"/>
+      <c r="C73" s="16" t="inlineStr">
+        <is>
+          <t>17201-6061189-7</t>
+        </is>
+      </c>
       <c r="D73" s="45" t="inlineStr">
         <is>
           <t>Khattak G/S</t>
@@ -7237,7 +7337,11 @@
         <v>76</v>
       </c>
       <c r="B76" s="41" t="n"/>
-      <c r="C76" s="16" t="n"/>
+      <c r="C76" s="16" t="inlineStr">
+        <is>
+          <t>37405-1025314-5</t>
+        </is>
+      </c>
       <c r="D76" s="45" t="inlineStr">
         <is>
           <t>Raja G/S</t>
@@ -7501,7 +7605,11 @@
         <v>79</v>
       </c>
       <c r="B79" s="41" t="n"/>
-      <c r="C79" s="16" t="n"/>
+      <c r="C79" s="16" t="inlineStr">
+        <is>
+          <t>13302-8263675-5</t>
+        </is>
+      </c>
       <c r="D79" s="45" t="inlineStr">
         <is>
           <t>Abbasi G/S</t>
@@ -7589,7 +7697,11 @@
         <v>80</v>
       </c>
       <c r="B80" s="41" t="n"/>
-      <c r="C80" s="16" t="n"/>
+      <c r="C80" s="16" t="inlineStr">
+        <is>
+          <t>37405-6037023-1</t>
+        </is>
+      </c>
       <c r="D80" s="45" t="inlineStr">
         <is>
           <t>786 G/S</t>
@@ -8205,7 +8317,11 @@
         <v>87</v>
       </c>
       <c r="B87" s="41" t="n"/>
-      <c r="C87" s="16" t="n"/>
+      <c r="C87" s="16" t="inlineStr">
+        <is>
+          <t>37405-6655854-3</t>
+        </is>
+      </c>
       <c r="D87" s="45" t="inlineStr">
         <is>
           <t>Bhatti G/S</t>
@@ -8293,7 +8409,11 @@
         <v>88</v>
       </c>
       <c r="B88" s="41" t="n"/>
-      <c r="C88" s="16" t="n"/>
+      <c r="C88" s="16" t="inlineStr">
+        <is>
+          <t>37405-4218612-9</t>
+        </is>
+      </c>
       <c r="D88" s="45" t="inlineStr">
         <is>
           <t>Insaf Atta Chaki</t>
@@ -9345,7 +9465,11 @@
         <v>100</v>
       </c>
       <c r="B100" s="41" t="n"/>
-      <c r="C100" s="16" t="n"/>
+      <c r="C100" s="16" t="inlineStr">
+        <is>
+          <t>61101-1802292-1</t>
+        </is>
+      </c>
       <c r="D100" s="45" t="inlineStr">
         <is>
           <t>Abdul Rehman G/S</t>
@@ -9433,7 +9557,11 @@
         <v>101</v>
       </c>
       <c r="B101" s="41" t="n"/>
-      <c r="C101" s="16" t="n"/>
+      <c r="C101" s="16" t="inlineStr">
+        <is>
+          <t>37405-3259423-3</t>
+        </is>
+      </c>
       <c r="D101" s="45" t="inlineStr">
         <is>
           <t>Kabeer utility store</t>
@@ -9521,7 +9649,11 @@
         <v>102</v>
       </c>
       <c r="B102" s="41" t="n"/>
-      <c r="C102" s="16" t="n"/>
+      <c r="C102" s="16" t="inlineStr">
+        <is>
+          <t>61101-7422125-3</t>
+        </is>
+      </c>
       <c r="D102" s="30" t="inlineStr">
         <is>
           <t>Awais G/S</t>
@@ -9609,7 +9741,11 @@
         <v>103</v>
       </c>
       <c r="B103" s="41" t="n"/>
-      <c r="C103" s="16" t="n"/>
+      <c r="C103" s="16" t="inlineStr">
+        <is>
+          <t>34201-7858581-1</t>
+        </is>
+      </c>
       <c r="D103" s="45" t="inlineStr">
         <is>
           <t>Sufi Auto Bakers</t>
@@ -9785,7 +9921,11 @@
         <v>105</v>
       </c>
       <c r="B105" s="41" t="n"/>
-      <c r="C105" s="16" t="n"/>
+      <c r="C105" s="16" t="inlineStr">
+        <is>
+          <t>61101-1803171-9</t>
+        </is>
+      </c>
       <c r="D105" s="45" t="inlineStr">
         <is>
           <t>Marhaba Baker</t>
@@ -10050,7 +10190,11 @@
         <v>108</v>
       </c>
       <c r="B108" s="41" t="n"/>
-      <c r="C108" s="16" t="n"/>
+      <c r="C108" s="16" t="inlineStr">
+        <is>
+          <t>61101-2587158-1</t>
+        </is>
+      </c>
       <c r="D108" s="45" t="inlineStr">
         <is>
           <t>Ghosia G/S</t>
@@ -10317,7 +10461,11 @@
         <v>112</v>
       </c>
       <c r="B111" s="41" t="n"/>
-      <c r="C111" s="16" t="n"/>
+      <c r="C111" s="16" t="inlineStr">
+        <is>
+          <t>61101-1945712-7</t>
+        </is>
+      </c>
       <c r="D111" s="45" t="inlineStr">
         <is>
           <t>Safe way Store</t>
@@ -10406,7 +10554,11 @@
         <v>113</v>
       </c>
       <c r="B112" s="41" t="n"/>
-      <c r="C112" s="16" t="n"/>
+      <c r="C112" s="16" t="inlineStr">
+        <is>
+          <t>61101-3037011-5</t>
+        </is>
+      </c>
       <c r="D112" s="45" t="inlineStr">
         <is>
           <t>Khattak Mart</t>
@@ -10584,7 +10736,11 @@
         <v>115</v>
       </c>
       <c r="B114" s="41" t="n"/>
-      <c r="C114" s="16" t="n"/>
+      <c r="C114" s="16" t="inlineStr">
+        <is>
+          <t>13302-8263675-5</t>
+        </is>
+      </c>
       <c r="D114" s="45" t="inlineStr">
         <is>
           <t>Abbasi G/S</t>
@@ -10672,7 +10828,11 @@
         <v>116</v>
       </c>
       <c r="B115" s="41" t="n"/>
-      <c r="C115" s="16" t="n"/>
+      <c r="C115" s="16" t="inlineStr">
+        <is>
+          <t>14101-0395035-5</t>
+        </is>
+      </c>
       <c r="D115" s="45" t="inlineStr">
         <is>
           <t>Bismillah G/S</t>
@@ -11284,7 +11444,11 @@
         <v>123</v>
       </c>
       <c r="B122" s="41" t="n"/>
-      <c r="C122" s="16" t="n"/>
+      <c r="C122" s="16" t="inlineStr">
+        <is>
+          <t>37405-5132896-1</t>
+        </is>
+      </c>
       <c r="D122" s="45" t="inlineStr">
         <is>
           <t>Habib G/S</t>
@@ -11372,7 +11536,11 @@
         <v>124</v>
       </c>
       <c r="B123" s="41" t="n"/>
-      <c r="C123" s="16" t="n"/>
+      <c r="C123" s="16" t="inlineStr">
+        <is>
+          <t>37405-5197123-9</t>
+        </is>
+      </c>
       <c r="D123" s="45" t="inlineStr">
         <is>
           <t>Bakht Munir G/S</t>
@@ -11460,7 +11628,11 @@
         <v>125</v>
       </c>
       <c r="B124" s="41" t="n"/>
-      <c r="C124" s="16" t="n"/>
+      <c r="C124" s="16" t="inlineStr">
+        <is>
+          <t>37405-5132896-1</t>
+        </is>
+      </c>
       <c r="D124" s="45" t="inlineStr">
         <is>
           <t>Habib G/S</t>
@@ -11636,7 +11808,11 @@
         <v>127</v>
       </c>
       <c r="B126" s="41" t="n"/>
-      <c r="C126" s="66" t="n"/>
+      <c r="C126" s="66" t="inlineStr">
+        <is>
+          <t>37405-0498027-1</t>
+        </is>
+      </c>
       <c r="D126" s="46" t="inlineStr">
         <is>
           <t>Falcon bakers</t>
@@ -12056,7 +12232,11 @@
         <v>132</v>
       </c>
       <c r="B131" s="41" t="n"/>
-      <c r="C131" s="16" t="n"/>
+      <c r="C131" s="16" t="inlineStr">
+        <is>
+          <t>42201-33957447-5</t>
+        </is>
+      </c>
       <c r="D131" s="45" t="inlineStr">
         <is>
           <t>Pak super store</t>
@@ -12205,7 +12385,11 @@
         <v>133</v>
       </c>
       <c r="B133" s="41" t="n"/>
-      <c r="C133" s="16" t="n"/>
+      <c r="C133" s="16" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D133" s="45" t="inlineStr">
         <is>
           <t>Malik G/S</t>
@@ -12288,7 +12472,11 @@
         <v>135</v>
       </c>
       <c r="B134" s="41" t="n"/>
-      <c r="C134" s="16" t="n"/>
+      <c r="C134" s="16" t="inlineStr">
+        <is>
+          <t>17201-2238655-5</t>
+        </is>
+      </c>
       <c r="D134" s="32" t="inlineStr">
         <is>
           <t>Khyber G/S</t>
@@ -12786,7 +12974,11 @@
         <v>141</v>
       </c>
       <c r="B140" s="41" t="n"/>
-      <c r="C140" s="16" t="n"/>
+      <c r="C140" s="16" t="inlineStr">
+        <is>
+          <t>61101-4259596-1</t>
+        </is>
+      </c>
       <c r="D140" s="45" t="inlineStr">
         <is>
           <t>Mashallah G/S</t>
@@ -14944,7 +15136,11 @@
         <v>170</v>
       </c>
       <c r="B166" s="41" t="n"/>
-      <c r="C166" s="16" t="n"/>
+      <c r="C166" s="16" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D166" s="30" t="inlineStr">
         <is>
           <t>Malik G/S</t>
@@ -17100,7 +17296,11 @@
         <v>198</v>
       </c>
       <c r="B192" s="41" t="n"/>
-      <c r="C192" s="60" t="n"/>
+      <c r="C192" s="60" t="inlineStr">
+        <is>
+          <t>42000-0512986-1</t>
+        </is>
+      </c>
       <c r="D192" s="45" t="inlineStr">
         <is>
           <t>Madina G/S</t>
@@ -17349,7 +17549,11 @@
         <v>201</v>
       </c>
       <c r="B195" s="41" t="n"/>
-      <c r="C195" s="17" t="n"/>
+      <c r="C195" s="17" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D195" s="30" t="inlineStr">
         <is>
           <t>Malik G/S</t>
@@ -17432,7 +17636,11 @@
         <v>202</v>
       </c>
       <c r="B196" s="41" t="n"/>
-      <c r="C196" s="60" t="n"/>
+      <c r="C196" s="60" t="inlineStr">
+        <is>
+          <t>17201-2214026-7</t>
+        </is>
+      </c>
       <c r="D196" s="45" t="inlineStr">
         <is>
           <t>Insaf G/S</t>
@@ -18593,7 +18801,11 @@
         <v>216</v>
       </c>
       <c r="B210" s="41" t="n"/>
-      <c r="C210" s="60" t="n"/>
+      <c r="C210" s="60" t="inlineStr">
+        <is>
+          <t>17201-9935715-5</t>
+        </is>
+      </c>
       <c r="D210" s="45" t="inlineStr">
         <is>
           <t>Al Madina G/S</t>
@@ -18676,7 +18888,11 @@
         <v>217</v>
       </c>
       <c r="B211" s="41" t="n"/>
-      <c r="C211" s="60" t="n"/>
+      <c r="C211" s="60" t="inlineStr">
+        <is>
+          <t>17201-9935715-5</t>
+        </is>
+      </c>
       <c r="D211" s="32" t="inlineStr">
         <is>
           <t>Al Madina G/S</t>
@@ -18838,7 +19054,11 @@
         <v>219</v>
       </c>
       <c r="B213" s="41" t="n"/>
-      <c r="C213" s="60" t="n"/>
+      <c r="C213" s="60" t="inlineStr">
+        <is>
+          <t>17201-6061189-7</t>
+        </is>
+      </c>
       <c r="D213" s="45" t="inlineStr">
         <is>
           <t>Khattak G/S</t>
@@ -19085,7 +19305,11 @@
         <v>222</v>
       </c>
       <c r="B216" s="112" t="n"/>
-      <c r="C216" s="59" t="n"/>
+      <c r="C216" s="59" t="inlineStr">
+        <is>
+          <t>37405-1903710-9</t>
+        </is>
+      </c>
       <c r="D216" s="45" t="inlineStr">
         <is>
           <t>Islamabad G/S</t>
@@ -19168,7 +19392,11 @@
         <v>223</v>
       </c>
       <c r="B217" s="112" t="n"/>
-      <c r="C217" s="59" t="n"/>
+      <c r="C217" s="59" t="inlineStr">
+        <is>
+          <t>37405-5109702-2</t>
+        </is>
+      </c>
       <c r="D217" s="45" t="inlineStr">
         <is>
           <t>Abbasi Super Mart</t>
@@ -19251,7 +19479,11 @@
         <v>224</v>
       </c>
       <c r="B218" s="112" t="n"/>
-      <c r="C218" s="59" t="n"/>
+      <c r="C218" s="59" t="inlineStr">
+        <is>
+          <t>61101-1824499-9</t>
+        </is>
+      </c>
       <c r="D218" s="45" t="inlineStr">
         <is>
           <t>Sadaat G/S</t>
@@ -19400,7 +19632,11 @@
         <v>225</v>
       </c>
       <c r="B220" s="112" t="n"/>
-      <c r="C220" s="59" t="n"/>
+      <c r="C220" s="59" t="inlineStr">
+        <is>
+          <t>37105-0266856-5</t>
+        </is>
+      </c>
       <c r="D220" s="45" t="inlineStr">
         <is>
           <t>Lasani Rice</t>
@@ -19566,7 +19802,11 @@
         <v>227</v>
       </c>
       <c r="B222" s="112" t="n"/>
-      <c r="C222" s="59" t="n"/>
+      <c r="C222" s="59" t="inlineStr">
+        <is>
+          <t>61101-7799287-3</t>
+        </is>
+      </c>
       <c r="D222" s="45" t="inlineStr">
         <is>
           <t>Bismillah Abbasi G/S</t>
@@ -19649,7 +19889,11 @@
         <v>228</v>
       </c>
       <c r="B223" s="112" t="n"/>
-      <c r="C223" s="59" t="n"/>
+      <c r="C223" s="59" t="inlineStr">
+        <is>
+          <t>61101-8353216-7</t>
+        </is>
+      </c>
       <c r="D223" s="45" t="inlineStr">
         <is>
           <t>Nomi G/S</t>
@@ -19732,7 +19976,11 @@
         <v>229</v>
       </c>
       <c r="B224" s="112" t="n"/>
-      <c r="C224" s="59" t="n"/>
+      <c r="C224" s="59" t="inlineStr">
+        <is>
+          <t>61101-1862397-3</t>
+        </is>
+      </c>
       <c r="D224" s="45" t="inlineStr">
         <is>
           <t>Manzoor G/S</t>
@@ -19898,7 +20146,11 @@
         <v>231</v>
       </c>
       <c r="B226" s="112" t="n"/>
-      <c r="C226" s="60" t="n"/>
+      <c r="C226" s="60" t="inlineStr">
+        <is>
+          <t>17201-7935706-3</t>
+        </is>
+      </c>
       <c r="D226" s="45" t="inlineStr">
         <is>
           <t>M.S G/S</t>
@@ -20064,7 +20316,11 @@
         <v>233</v>
       </c>
       <c r="B228" s="16" t="n"/>
-      <c r="C228" s="60" t="n"/>
+      <c r="C228" s="60" t="inlineStr">
+        <is>
+          <t>17201-2214026-7</t>
+        </is>
+      </c>
       <c r="D228" s="45" t="inlineStr">
         <is>
           <t>Insaf G/S</t>
@@ -20147,7 +20403,11 @@
         <v>234</v>
       </c>
       <c r="B229" s="112" t="n"/>
-      <c r="C229" s="60" t="n"/>
+      <c r="C229" s="60" t="inlineStr">
+        <is>
+          <t>61101-2292275-3</t>
+        </is>
+      </c>
       <c r="D229" s="45" t="inlineStr">
         <is>
           <t>Star G/S</t>
@@ -20230,7 +20490,11 @@
         <v>235</v>
       </c>
       <c r="B230" s="112" t="n"/>
-      <c r="C230" s="60" t="n"/>
+      <c r="C230" s="60" t="inlineStr">
+        <is>
+          <t>17201-3771631-9</t>
+        </is>
+      </c>
       <c r="D230" s="45" t="inlineStr">
         <is>
           <t>Al Rehman G/S</t>
@@ -20479,7 +20743,11 @@
         <v>238</v>
       </c>
       <c r="B233" s="112" t="n"/>
-      <c r="C233" s="60" t="n"/>
+      <c r="C233" s="60" t="inlineStr">
+        <is>
+          <t>61101-8202750-5</t>
+        </is>
+      </c>
       <c r="D233" s="45" t="inlineStr">
         <is>
           <t>New Butt Store</t>
@@ -20645,7 +20913,11 @@
         <v>240</v>
       </c>
       <c r="B235" s="112" t="n"/>
-      <c r="C235" s="60" t="n"/>
+      <c r="C235" s="60" t="inlineStr">
+        <is>
+          <t>17201-2089836-5</t>
+        </is>
+      </c>
       <c r="D235" s="45" t="inlineStr">
         <is>
           <t>Al Noor Super Store</t>
@@ -20728,7 +21000,11 @@
         <v>241</v>
       </c>
       <c r="B236" s="41" t="n"/>
-      <c r="C236" s="60" t="n"/>
+      <c r="C236" s="60" t="inlineStr">
+        <is>
+          <t>17201-7935706-3</t>
+        </is>
+      </c>
       <c r="D236" s="45" t="inlineStr">
         <is>
           <t>M.S G/S</t>
@@ -20809,7 +21085,11 @@
         <v>242</v>
       </c>
       <c r="B237" s="112" t="n"/>
-      <c r="C237" s="60" t="n"/>
+      <c r="C237" s="60" t="inlineStr">
+        <is>
+          <t>42101-1685425-1</t>
+        </is>
+      </c>
       <c r="D237" s="45" t="inlineStr">
         <is>
           <t>Arshad G/S</t>

--- a/Python_with_excel/excel_files/Exported.xlsx
+++ b/Python_with_excel/excel_files/Exported.xlsx
@@ -2518,11 +2518,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="41" t="n"/>
-      <c r="C20" s="16" t="inlineStr">
-        <is>
-          <t>37405-1019911-7</t>
-        </is>
-      </c>
+      <c r="C20" s="16" t="n"/>
       <c r="D20" s="45" t="inlineStr">
         <is>
           <t>Malik G/S</t>
@@ -2665,11 +2661,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="n"/>
-      <c r="C22" s="16" t="inlineStr">
-        <is>
-          <t>14203-0559554-7</t>
-        </is>
-      </c>
+      <c r="C22" s="16" t="n"/>
       <c r="D22" s="32" t="inlineStr">
         <is>
           <t>K Mart</t>
@@ -2741,11 +2733,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="41" t="n"/>
-      <c r="C23" s="16" t="inlineStr">
-        <is>
-          <t>61101-4259596-1</t>
-        </is>
-      </c>
+      <c r="C23" s="16" t="n"/>
       <c r="D23" s="45" t="inlineStr">
         <is>
           <t>Mashallah G/S</t>
@@ -2817,11 +2805,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="41" t="n"/>
-      <c r="C24" s="16" t="inlineStr">
-        <is>
-          <t>37405-1203846-2</t>
-        </is>
-      </c>
+      <c r="C24" s="16" t="n"/>
       <c r="D24" s="45" t="inlineStr">
         <is>
           <t>Kurum Traders</t>
@@ -2893,11 +2877,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="41" t="n"/>
-      <c r="C25" s="16" t="inlineStr">
-        <is>
-          <t>61101-8945241-3</t>
-        </is>
-      </c>
+      <c r="C25" s="16" t="n"/>
       <c r="D25" s="45" t="inlineStr">
         <is>
           <t>Babar Al Meher</t>
@@ -2968,11 +2948,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="n"/>
-      <c r="C26" s="16" t="inlineStr">
-        <is>
-          <t>37405-1243621-9</t>
-        </is>
-      </c>
+      <c r="C26" s="16" t="n"/>
       <c r="D26" s="45" t="inlineStr">
         <is>
           <t>Muneeb Al Mehr</t>
@@ -3114,11 +3090,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="41" t="n"/>
-      <c r="C28" s="16" t="inlineStr">
-        <is>
-          <t>61101-1312965-9</t>
-        </is>
-      </c>
+      <c r="C28" s="16" t="n"/>
       <c r="D28" s="45" t="inlineStr">
         <is>
           <t>Abdul sattar Trader</t>
@@ -3260,11 +3232,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="41" t="n"/>
-      <c r="C30" s="64" t="inlineStr">
-        <is>
-          <t>61101-1824499-9</t>
-        </is>
-      </c>
+      <c r="C30" s="64" t="n"/>
       <c r="D30" s="45" t="inlineStr">
         <is>
           <t>Sadaat G/S</t>
@@ -3335,11 +3303,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="41" t="n"/>
-      <c r="C31" s="17" t="inlineStr">
-        <is>
-          <t>17201-2214026-7</t>
-        </is>
-      </c>
+      <c r="C31" s="17" t="n"/>
       <c r="D31" s="30" t="inlineStr">
         <is>
           <t>Insaf G/S</t>
@@ -3549,11 +3513,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="41" t="n"/>
-      <c r="C34" s="16" t="inlineStr">
-        <is>
-          <t>13503-7462324-3</t>
-        </is>
-      </c>
+      <c r="C34" s="16" t="n"/>
       <c r="D34" s="45" t="inlineStr">
         <is>
           <t>Al khair Trader</t>
@@ -3693,11 +3653,7 @@
       <c r="A36" s="52" t="n">
         <v>36</v>
       </c>
-      <c r="C36" s="16" t="inlineStr">
-        <is>
-          <t>37405-1903710-9</t>
-        </is>
-      </c>
+      <c r="C36" s="16" t="n"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>Islamabad G/S</t>
@@ -3768,11 +3724,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="41" t="n"/>
-      <c r="C37" s="16" t="inlineStr">
-        <is>
-          <t>17201-9672033-7</t>
-        </is>
-      </c>
+      <c r="C37" s="16" t="n"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>New Four Brother G/S</t>
@@ -3843,11 +3795,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="41" t="n"/>
-      <c r="C38" s="16" t="inlineStr">
-        <is>
-          <t>16204-0585197-0</t>
-        </is>
-      </c>
+      <c r="C38" s="16" t="n"/>
       <c r="D38" s="45" t="inlineStr">
         <is>
           <t>IR Mart</t>
@@ -4219,11 +4167,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="41" t="n"/>
-      <c r="C42" s="17" t="inlineStr">
-        <is>
-          <t>37405-2936789-1</t>
-        </is>
-      </c>
+      <c r="C42" s="17" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Khuram G/S</t>
@@ -4316,11 +4260,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="41" t="n"/>
-      <c r="C43" s="16" t="inlineStr">
-        <is>
-          <t>37405-8004953-9</t>
-        </is>
-      </c>
+      <c r="C43" s="16" t="n"/>
       <c r="D43" s="45" t="inlineStr">
         <is>
           <t>Al syed G/S</t>
@@ -4411,11 +4351,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="41" t="n"/>
-      <c r="C44" s="16" t="inlineStr">
-        <is>
-          <t>37405-5129214-2</t>
-        </is>
-      </c>
+      <c r="C44" s="16" t="n"/>
       <c r="D44" s="45" t="inlineStr">
         <is>
           <t>Friends Super mart</t>
@@ -4597,11 +4533,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="41" t="n"/>
-      <c r="C46" s="64" t="inlineStr">
-        <is>
-          <t>61101-1802292-1</t>
-        </is>
-      </c>
+      <c r="C46" s="64" t="n"/>
       <c r="D46" s="45" t="inlineStr">
         <is>
           <t>Abdul rehman G/S</t>
@@ -4787,11 +4719,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="41" t="n"/>
-      <c r="C48" s="16" t="inlineStr">
-        <is>
-          <t>37405-3259423-3</t>
-        </is>
-      </c>
+      <c r="C48" s="16" t="n"/>
       <c r="D48" s="45" t="inlineStr">
         <is>
           <t>Kabeer utility store</t>
@@ -5163,11 +5091,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="41" t="n"/>
-      <c r="C52" s="16" t="inlineStr">
-        <is>
-          <t>61101-2648969-5</t>
-        </is>
-      </c>
+      <c r="C52" s="16" t="n"/>
       <c r="D52" s="45" t="inlineStr">
         <is>
           <t>Bismillah Traders</t>
@@ -5539,11 +5463,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="41" t="n"/>
-      <c r="C56" s="16" t="inlineStr">
-        <is>
-          <t>61101-9442805-1</t>
-        </is>
-      </c>
+      <c r="C56" s="16" t="n"/>
       <c r="D56" s="45" t="inlineStr">
         <is>
           <t>Awami G/S</t>
@@ -5822,11 +5742,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="41" t="n"/>
-      <c r="C59" s="16" t="inlineStr">
-        <is>
-          <t>37405-6037023-1</t>
-        </is>
-      </c>
+      <c r="C59" s="16" t="n"/>
       <c r="D59" s="32" t="inlineStr">
         <is>
           <t>786 G/S</t>
@@ -5917,11 +5833,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="41" t="n"/>
-      <c r="C60" s="16" t="inlineStr">
-        <is>
-          <t>37405-5102398-6</t>
-        </is>
-      </c>
+      <c r="C60" s="16" t="n"/>
       <c r="D60" s="45" t="inlineStr">
         <is>
           <t>Capital Mart</t>
@@ -6097,11 +6009,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="41" t="n"/>
-      <c r="C62" s="16" t="inlineStr">
-        <is>
-          <t>61101-2587158-1</t>
-        </is>
-      </c>
+      <c r="C62" s="16" t="n"/>
       <c r="D62" s="45" t="inlineStr">
         <is>
           <t>Ghosia G/S</t>
@@ -6187,11 +6095,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="41" t="n"/>
-      <c r="C63" s="16" t="inlineStr">
-        <is>
-          <t>17101-0305858-9</t>
-        </is>
-      </c>
+      <c r="C63" s="16" t="n"/>
       <c r="D63" s="45" t="inlineStr">
         <is>
           <t>Saad G/S</t>
@@ -7071,11 +6975,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="41" t="n"/>
-      <c r="C73" s="16" t="inlineStr">
-        <is>
-          <t>17201-6061189-7</t>
-        </is>
-      </c>
+      <c r="C73" s="16" t="n"/>
       <c r="D73" s="45" t="inlineStr">
         <is>
           <t>Khattak G/S</t>
@@ -7337,11 +7237,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="41" t="n"/>
-      <c r="C76" s="16" t="inlineStr">
-        <is>
-          <t>37405-1025314-5</t>
-        </is>
-      </c>
+      <c r="C76" s="16" t="n"/>
       <c r="D76" s="45" t="inlineStr">
         <is>
           <t>Raja G/S</t>
@@ -7605,11 +7501,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="41" t="n"/>
-      <c r="C79" s="16" t="inlineStr">
-        <is>
-          <t>13302-8263675-5</t>
-        </is>
-      </c>
+      <c r="C79" s="16" t="n"/>
       <c r="D79" s="45" t="inlineStr">
         <is>
           <t>Abbasi G/S</t>
@@ -7697,11 +7589,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="41" t="n"/>
-      <c r="C80" s="16" t="inlineStr">
-        <is>
-          <t>37405-6037023-1</t>
-        </is>
-      </c>
+      <c r="C80" s="16" t="n"/>
       <c r="D80" s="45" t="inlineStr">
         <is>
           <t>786 G/S</t>
@@ -8317,11 +8205,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="41" t="n"/>
-      <c r="C87" s="16" t="inlineStr">
-        <is>
-          <t>37405-6655854-3</t>
-        </is>
-      </c>
+      <c r="C87" s="16" t="n"/>
       <c r="D87" s="45" t="inlineStr">
         <is>
           <t>Bhatti G/S</t>
@@ -8409,11 +8293,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="41" t="n"/>
-      <c r="C88" s="16" t="inlineStr">
-        <is>
-          <t>37405-4218612-9</t>
-        </is>
-      </c>
+      <c r="C88" s="16" t="n"/>
       <c r="D88" s="45" t="inlineStr">
         <is>
           <t>Insaf Atta Chaki</t>
@@ -9465,11 +9345,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="41" t="n"/>
-      <c r="C100" s="16" t="inlineStr">
-        <is>
-          <t>61101-1802292-1</t>
-        </is>
-      </c>
+      <c r="C100" s="16" t="n"/>
       <c r="D100" s="45" t="inlineStr">
         <is>
           <t>Abdul Rehman G/S</t>
@@ -9557,11 +9433,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="41" t="n"/>
-      <c r="C101" s="16" t="inlineStr">
-        <is>
-          <t>37405-3259423-3</t>
-        </is>
-      </c>
+      <c r="C101" s="16" t="n"/>
       <c r="D101" s="45" t="inlineStr">
         <is>
           <t>Kabeer utility store</t>
@@ -9649,11 +9521,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="41" t="n"/>
-      <c r="C102" s="16" t="inlineStr">
-        <is>
-          <t>61101-7422125-3</t>
-        </is>
-      </c>
+      <c r="C102" s="16" t="n"/>
       <c r="D102" s="30" t="inlineStr">
         <is>
           <t>Awais G/S</t>
@@ -9741,11 +9609,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="41" t="n"/>
-      <c r="C103" s="16" t="inlineStr">
-        <is>
-          <t>34201-7858581-1</t>
-        </is>
-      </c>
+      <c r="C103" s="16" t="n"/>
       <c r="D103" s="45" t="inlineStr">
         <is>
           <t>Sufi Auto Bakers</t>
@@ -9921,11 +9785,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="41" t="n"/>
-      <c r="C105" s="16" t="inlineStr">
-        <is>
-          <t>61101-1803171-9</t>
-        </is>
-      </c>
+      <c r="C105" s="16" t="n"/>
       <c r="D105" s="45" t="inlineStr">
         <is>
           <t>Marhaba Baker</t>
@@ -10190,11 +10050,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="41" t="n"/>
-      <c r="C108" s="16" t="inlineStr">
-        <is>
-          <t>61101-2587158-1</t>
-        </is>
-      </c>
+      <c r="C108" s="16" t="n"/>
       <c r="D108" s="45" t="inlineStr">
         <is>
           <t>Ghosia G/S</t>
@@ -10461,11 +10317,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="41" t="n"/>
-      <c r="C111" s="16" t="inlineStr">
-        <is>
-          <t>61101-1945712-7</t>
-        </is>
-      </c>
+      <c r="C111" s="16" t="n"/>
       <c r="D111" s="45" t="inlineStr">
         <is>
           <t>Safe way Store</t>
@@ -10554,11 +10406,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="41" t="n"/>
-      <c r="C112" s="16" t="inlineStr">
-        <is>
-          <t>61101-3037011-5</t>
-        </is>
-      </c>
+      <c r="C112" s="16" t="n"/>
       <c r="D112" s="45" t="inlineStr">
         <is>
           <t>Khattak Mart</t>
@@ -10736,11 +10584,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="41" t="n"/>
-      <c r="C114" s="16" t="inlineStr">
-        <is>
-          <t>13302-8263675-5</t>
-        </is>
-      </c>
+      <c r="C114" s="16" t="n"/>
       <c r="D114" s="45" t="inlineStr">
         <is>
           <t>Abbasi G/S</t>
@@ -10828,11 +10672,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="41" t="n"/>
-      <c r="C115" s="16" t="inlineStr">
-        <is>
-          <t>14101-0395035-5</t>
-        </is>
-      </c>
+      <c r="C115" s="16" t="n"/>
       <c r="D115" s="45" t="inlineStr">
         <is>
           <t>Bismillah G/S</t>
@@ -11444,11 +11284,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="41" t="n"/>
-      <c r="C122" s="16" t="inlineStr">
-        <is>
-          <t>37405-5132896-1</t>
-        </is>
-      </c>
+      <c r="C122" s="16" t="n"/>
       <c r="D122" s="45" t="inlineStr">
         <is>
           <t>Habib G/S</t>
@@ -11536,11 +11372,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="41" t="n"/>
-      <c r="C123" s="16" t="inlineStr">
-        <is>
-          <t>37405-5197123-9</t>
-        </is>
-      </c>
+      <c r="C123" s="16" t="n"/>
       <c r="D123" s="45" t="inlineStr">
         <is>
           <t>Bakht Munir G/S</t>
@@ -11628,11 +11460,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="41" t="n"/>
-      <c r="C124" s="16" t="inlineStr">
-        <is>
-          <t>37405-5132896-1</t>
-        </is>
-      </c>
+      <c r="C124" s="16" t="n"/>
       <c r="D124" s="45" t="inlineStr">
         <is>
           <t>Habib G/S</t>
@@ -11808,11 +11636,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="41" t="n"/>
-      <c r="C126" s="66" t="inlineStr">
-        <is>
-          <t>37405-0498027-1</t>
-        </is>
-      </c>
+      <c r="C126" s="66" t="n"/>
       <c r="D126" s="46" t="inlineStr">
         <is>
           <t>Falcon bakers</t>
@@ -12232,11 +12056,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="41" t="n"/>
-      <c r="C131" s="16" t="inlineStr">
-        <is>
-          <t>42201-33957447-5</t>
-        </is>
-      </c>
+      <c r="C131" s="16" t="n"/>
       <c r="D131" s="45" t="inlineStr">
         <is>
           <t>Pak super store</t>
@@ -12385,11 +12205,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="41" t="n"/>
-      <c r="C133" s="16" t="inlineStr">
-        <is>
-          <t>37405-1019911-7</t>
-        </is>
-      </c>
+      <c r="C133" s="16" t="n"/>
       <c r="D133" s="45" t="inlineStr">
         <is>
           <t>Malik G/S</t>
@@ -12472,11 +12288,7 @@
         <v>135</v>
       </c>
       <c r="B134" s="41" t="n"/>
-      <c r="C134" s="16" t="inlineStr">
-        <is>
-          <t>17201-2238655-5</t>
-        </is>
-      </c>
+      <c r="C134" s="16" t="n"/>
       <c r="D134" s="32" t="inlineStr">
         <is>
           <t>Khyber G/S</t>
@@ -12974,11 +12786,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="41" t="n"/>
-      <c r="C140" s="16" t="inlineStr">
-        <is>
-          <t>61101-4259596-1</t>
-        </is>
-      </c>
+      <c r="C140" s="16" t="n"/>
       <c r="D140" s="45" t="inlineStr">
         <is>
           <t>Mashallah G/S</t>
@@ -15136,11 +14944,7 @@
         <v>170</v>
       </c>
       <c r="B166" s="41" t="n"/>
-      <c r="C166" s="16" t="inlineStr">
-        <is>
-          <t>37405-1019911-7</t>
-        </is>
-      </c>
+      <c r="C166" s="16" t="n"/>
       <c r="D166" s="30" t="inlineStr">
         <is>
           <t>Malik G/S</t>
@@ -17296,11 +17100,7 @@
         <v>198</v>
       </c>
       <c r="B192" s="41" t="n"/>
-      <c r="C192" s="60" t="inlineStr">
-        <is>
-          <t>42000-0512986-1</t>
-        </is>
-      </c>
+      <c r="C192" s="60" t="n"/>
       <c r="D192" s="45" t="inlineStr">
         <is>
           <t>Madina G/S</t>
@@ -17549,11 +17349,7 @@
         <v>201</v>
       </c>
       <c r="B195" s="41" t="n"/>
-      <c r="C195" s="17" t="inlineStr">
-        <is>
-          <t>37405-1019911-7</t>
-        </is>
-      </c>
+      <c r="C195" s="17" t="n"/>
       <c r="D195" s="30" t="inlineStr">
         <is>
           <t>Malik G/S</t>
@@ -17636,11 +17432,7 @@
         <v>202</v>
       </c>
       <c r="B196" s="41" t="n"/>
-      <c r="C196" s="60" t="inlineStr">
-        <is>
-          <t>17201-2214026-7</t>
-        </is>
-      </c>
+      <c r="C196" s="60" t="n"/>
       <c r="D196" s="45" t="inlineStr">
         <is>
           <t>Insaf G/S</t>
@@ -18801,11 +18593,7 @@
         <v>216</v>
       </c>
       <c r="B210" s="41" t="n"/>
-      <c r="C210" s="60" t="inlineStr">
-        <is>
-          <t>17201-9935715-5</t>
-        </is>
-      </c>
+      <c r="C210" s="60" t="n"/>
       <c r="D210" s="45" t="inlineStr">
         <is>
           <t>Al Madina G/S</t>
@@ -18888,11 +18676,7 @@
         <v>217</v>
       </c>
       <c r="B211" s="41" t="n"/>
-      <c r="C211" s="60" t="inlineStr">
-        <is>
-          <t>17201-9935715-5</t>
-        </is>
-      </c>
+      <c r="C211" s="60" t="n"/>
       <c r="D211" s="32" t="inlineStr">
         <is>
           <t>Al Madina G/S</t>
@@ -19054,11 +18838,7 @@
         <v>219</v>
       </c>
       <c r="B213" s="41" t="n"/>
-      <c r="C213" s="60" t="inlineStr">
-        <is>
-          <t>17201-6061189-7</t>
-        </is>
-      </c>
+      <c r="C213" s="60" t="n"/>
       <c r="D213" s="45" t="inlineStr">
         <is>
           <t>Khattak G/S</t>
@@ -19305,11 +19085,7 @@
         <v>222</v>
       </c>
       <c r="B216" s="112" t="n"/>
-      <c r="C216" s="59" t="inlineStr">
-        <is>
-          <t>37405-1903710-9</t>
-        </is>
-      </c>
+      <c r="C216" s="59" t="n"/>
       <c r="D216" s="45" t="inlineStr">
         <is>
           <t>Islamabad G/S</t>
@@ -19392,11 +19168,7 @@
         <v>223</v>
       </c>
       <c r="B217" s="112" t="n"/>
-      <c r="C217" s="59" t="inlineStr">
-        <is>
-          <t>37405-5109702-2</t>
-        </is>
-      </c>
+      <c r="C217" s="59" t="n"/>
       <c r="D217" s="45" t="inlineStr">
         <is>
           <t>Abbasi Super Mart</t>
@@ -19479,11 +19251,7 @@
         <v>224</v>
       </c>
       <c r="B218" s="112" t="n"/>
-      <c r="C218" s="59" t="inlineStr">
-        <is>
-          <t>61101-1824499-9</t>
-        </is>
-      </c>
+      <c r="C218" s="59" t="n"/>
       <c r="D218" s="45" t="inlineStr">
         <is>
           <t>Sadaat G/S</t>
@@ -19632,11 +19400,7 @@
         <v>225</v>
       </c>
       <c r="B220" s="112" t="n"/>
-      <c r="C220" s="59" t="inlineStr">
-        <is>
-          <t>37105-0266856-5</t>
-        </is>
-      </c>
+      <c r="C220" s="59" t="n"/>
       <c r="D220" s="45" t="inlineStr">
         <is>
           <t>Lasani Rice</t>
@@ -19802,11 +19566,7 @@
         <v>227</v>
       </c>
       <c r="B222" s="112" t="n"/>
-      <c r="C222" s="59" t="inlineStr">
-        <is>
-          <t>61101-7799287-3</t>
-        </is>
-      </c>
+      <c r="C222" s="59" t="n"/>
       <c r="D222" s="45" t="inlineStr">
         <is>
           <t>Bismillah Abbasi G/S</t>
@@ -19889,11 +19649,7 @@
         <v>228</v>
       </c>
       <c r="B223" s="112" t="n"/>
-      <c r="C223" s="59" t="inlineStr">
-        <is>
-          <t>61101-8353216-7</t>
-        </is>
-      </c>
+      <c r="C223" s="59" t="n"/>
       <c r="D223" s="45" t="inlineStr">
         <is>
           <t>Nomi G/S</t>
@@ -19976,11 +19732,7 @@
         <v>229</v>
       </c>
       <c r="B224" s="112" t="n"/>
-      <c r="C224" s="59" t="inlineStr">
-        <is>
-          <t>61101-1862397-3</t>
-        </is>
-      </c>
+      <c r="C224" s="59" t="n"/>
       <c r="D224" s="45" t="inlineStr">
         <is>
           <t>Manzoor G/S</t>
@@ -20146,11 +19898,7 @@
         <v>231</v>
       </c>
       <c r="B226" s="112" t="n"/>
-      <c r="C226" s="60" t="inlineStr">
-        <is>
-          <t>17201-7935706-3</t>
-        </is>
-      </c>
+      <c r="C226" s="60" t="n"/>
       <c r="D226" s="45" t="inlineStr">
         <is>
           <t>M.S G/S</t>
@@ -20316,11 +20064,7 @@
         <v>233</v>
       </c>
       <c r="B228" s="16" t="n"/>
-      <c r="C228" s="60" t="inlineStr">
-        <is>
-          <t>17201-2214026-7</t>
-        </is>
-      </c>
+      <c r="C228" s="60" t="n"/>
       <c r="D228" s="45" t="inlineStr">
         <is>
           <t>Insaf G/S</t>
@@ -20403,11 +20147,7 @@
         <v>234</v>
       </c>
       <c r="B229" s="112" t="n"/>
-      <c r="C229" s="60" t="inlineStr">
-        <is>
-          <t>61101-2292275-3</t>
-        </is>
-      </c>
+      <c r="C229" s="60" t="n"/>
       <c r="D229" s="45" t="inlineStr">
         <is>
           <t>Star G/S</t>
@@ -20490,11 +20230,7 @@
         <v>235</v>
       </c>
       <c r="B230" s="112" t="n"/>
-      <c r="C230" s="60" t="inlineStr">
-        <is>
-          <t>17201-3771631-9</t>
-        </is>
-      </c>
+      <c r="C230" s="60" t="n"/>
       <c r="D230" s="45" t="inlineStr">
         <is>
           <t>Al Rehman G/S</t>
@@ -20743,11 +20479,7 @@
         <v>238</v>
       </c>
       <c r="B233" s="112" t="n"/>
-      <c r="C233" s="60" t="inlineStr">
-        <is>
-          <t>61101-8202750-5</t>
-        </is>
-      </c>
+      <c r="C233" s="60" t="n"/>
       <c r="D233" s="45" t="inlineStr">
         <is>
           <t>New Butt Store</t>
@@ -20913,11 +20645,7 @@
         <v>240</v>
       </c>
       <c r="B235" s="112" t="n"/>
-      <c r="C235" s="60" t="inlineStr">
-        <is>
-          <t>17201-2089836-5</t>
-        </is>
-      </c>
+      <c r="C235" s="60" t="n"/>
       <c r="D235" s="45" t="inlineStr">
         <is>
           <t>Al Noor Super Store</t>
@@ -21000,11 +20728,7 @@
         <v>241</v>
       </c>
       <c r="B236" s="41" t="n"/>
-      <c r="C236" s="60" t="inlineStr">
-        <is>
-          <t>17201-7935706-3</t>
-        </is>
-      </c>
+      <c r="C236" s="60" t="n"/>
       <c r="D236" s="45" t="inlineStr">
         <is>
           <t>M.S G/S</t>
@@ -21085,11 +20809,7 @@
         <v>242</v>
       </c>
       <c r="B237" s="112" t="n"/>
-      <c r="C237" s="60" t="inlineStr">
-        <is>
-          <t>42101-1685425-1</t>
-        </is>
-      </c>
+      <c r="C237" s="60" t="n"/>
       <c r="D237" s="45" t="inlineStr">
         <is>
           <t>Arshad G/S</t>

--- a/Python_with_excel/excel_files/Exported.xlsx
+++ b/Python_with_excel/excel_files/Exported.xlsx
@@ -1201,7 +1201,7 @@
       <c r="C2" s="16" t="n"/>
       <c r="D2" s="45" t="inlineStr">
         <is>
-          <t>Hamza G/S</t>
+          <t>HAMZA GENERAL STORE</t>
         </is>
       </c>
       <c r="E2" s="45" t="inlineStr">
@@ -1300,7 +1300,7 @@
       <c r="C3" s="16" t="n"/>
       <c r="D3" s="45" t="inlineStr">
         <is>
-          <t>Lavizah G/S</t>
+          <t>LAVIZAH GENERAL STORE</t>
         </is>
       </c>
       <c r="E3" s="45" t="inlineStr">
@@ -1372,7 +1372,7 @@
       <c r="C4" s="16" t="n"/>
       <c r="D4" s="45" t="inlineStr">
         <is>
-          <t>Mini Utility Store</t>
+          <t>MINI UTILITY STORE</t>
         </is>
       </c>
       <c r="E4" s="45" t="inlineStr">
@@ -1445,7 +1445,7 @@
       <c r="C5" s="16" t="n"/>
       <c r="D5" s="45" t="inlineStr">
         <is>
-          <t>Shayan G/S</t>
+          <t>SHAYAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E5" s="45" t="inlineStr">
@@ -1518,7 +1518,7 @@
       <c r="C6" s="16" t="n"/>
       <c r="D6" s="45" t="inlineStr">
         <is>
-          <t>Sargodha G/S</t>
+          <t>SARGODHA GENERAL STORE</t>
         </is>
       </c>
       <c r="E6" s="45" t="inlineStr">
@@ -1591,7 +1591,7 @@
       <c r="C7" s="64" t="n"/>
       <c r="D7" s="45" t="inlineStr">
         <is>
-          <t>Khayam S/S</t>
+          <t>KHAYAM SUPER STORE</t>
         </is>
       </c>
       <c r="E7" s="45" t="inlineStr">
@@ -1663,7 +1663,7 @@
       <c r="C8" s="65" t="n"/>
       <c r="D8" s="45" t="inlineStr">
         <is>
-          <t>Khattak Brother G/S</t>
+          <t>KHATTAK BROTHER GENERAL STORE</t>
         </is>
       </c>
       <c r="E8" s="45" t="inlineStr">
@@ -1735,7 +1735,7 @@
       <c r="C9" s="16" t="n"/>
       <c r="D9" s="45" t="inlineStr">
         <is>
-          <t>Hameed G/S</t>
+          <t>HAMEED GENERAL STORE</t>
         </is>
       </c>
       <c r="E9" s="45" t="inlineStr">
@@ -1807,7 +1807,7 @@
       <c r="C10" s="16" t="n"/>
       <c r="D10" s="45" t="inlineStr">
         <is>
-          <t>Tayyaba Cash &amp; Carry</t>
+          <t>TAYYABA CASH &amp; CARRY</t>
         </is>
       </c>
       <c r="E10" s="45" t="inlineStr">
@@ -1879,7 +1879,7 @@
       <c r="C11" s="17" t="n"/>
       <c r="D11" s="30" t="inlineStr">
         <is>
-          <t>Hadi G/S</t>
+          <t>HADI GENERAL STORE</t>
         </is>
       </c>
       <c r="E11" s="45" t="inlineStr">
@@ -1950,7 +1950,7 @@
       <c r="C12" s="64" t="n"/>
       <c r="D12" s="45" t="inlineStr">
         <is>
-          <t>Al Medina G/S</t>
+          <t>AL MEDINA GENERAL STORE</t>
         </is>
       </c>
       <c r="E12" s="45" t="inlineStr">
@@ -2019,10 +2019,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="41" t="n"/>
-      <c r="C13" s="64" t="n"/>
+      <c r="C13" s="64" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D13" s="45" t="inlineStr">
         <is>
-          <t>Malik G.Store</t>
+          <t>MALIK G.STORE</t>
         </is>
       </c>
       <c r="E13" s="45" t="inlineStr">
@@ -2094,7 +2098,7 @@
       <c r="C14" s="64" t="n"/>
       <c r="D14" s="45" t="inlineStr">
         <is>
-          <t>waqas khatak G/S</t>
+          <t>WAQAS KHATAK GENERAL STORE</t>
         </is>
       </c>
       <c r="E14" s="45" t="inlineStr">
@@ -2166,7 +2170,7 @@
       <c r="C15" s="16" t="n"/>
       <c r="D15" s="45" t="inlineStr">
         <is>
-          <t>Afsar Utility Store</t>
+          <t>AFSAR UTILITY STORE</t>
         </is>
       </c>
       <c r="E15" s="45" t="inlineStr">
@@ -2237,7 +2241,7 @@
       <c r="C16" s="16" t="n"/>
       <c r="D16" s="45" t="inlineStr">
         <is>
-          <t>M Shayan Khattak G/S</t>
+          <t>M SHAYAN KHATTAK GENERAL STORE</t>
         </is>
       </c>
       <c r="E16" s="45" t="inlineStr">
@@ -2305,10 +2309,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="41" t="n"/>
-      <c r="C17" s="16" t="n"/>
+      <c r="C17" s="16" t="inlineStr">
+        <is>
+          <t>37405-5465632-3</t>
+        </is>
+      </c>
       <c r="D17" s="45" t="inlineStr">
         <is>
-          <t>Mandibahudin G.Store</t>
+          <t>MANDIBAHUDIN G.STORE</t>
         </is>
       </c>
       <c r="E17" s="45" t="inlineStr">
@@ -2376,10 +2384,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="41" t="n"/>
-      <c r="C18" s="16" t="n"/>
+      <c r="C18" s="16" t="inlineStr">
+        <is>
+          <t>37405-5465632-3</t>
+        </is>
+      </c>
       <c r="D18" s="45" t="inlineStr">
         <is>
-          <t>Mandibahudin G.Store</t>
+          <t>MANDIBAHUDIN G.STORE</t>
         </is>
       </c>
       <c r="E18" s="45" t="inlineStr">
@@ -2450,7 +2462,7 @@
       <c r="C19" s="16" t="n"/>
       <c r="D19" s="45" t="inlineStr">
         <is>
-          <t>COSMO Cash &amp; Carry</t>
+          <t>COSMO CASH &amp; CARRY</t>
         </is>
       </c>
       <c r="E19" s="45" t="inlineStr">
@@ -2518,10 +2530,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="41" t="n"/>
-      <c r="C20" s="16" t="n"/>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D20" s="45" t="inlineStr">
         <is>
-          <t>Malik G/S</t>
+          <t>MALIK GENERAL STORE</t>
         </is>
       </c>
       <c r="E20" s="45" t="inlineStr">
@@ -2592,7 +2608,7 @@
       <c r="C21" s="16" t="n"/>
       <c r="D21" s="45" t="inlineStr">
         <is>
-          <t>Sheraz Traders</t>
+          <t>SHERAZ TRADERS</t>
         </is>
       </c>
       <c r="E21" s="45" t="inlineStr">
@@ -2661,10 +2677,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="n"/>
-      <c r="C22" s="16" t="n"/>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>14203-0559554-7</t>
+        </is>
+      </c>
       <c r="D22" s="32" t="inlineStr">
         <is>
-          <t>K Mart</t>
+          <t>K MART</t>
         </is>
       </c>
       <c r="E22" s="45" t="inlineStr">
@@ -2733,10 +2753,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="41" t="n"/>
-      <c r="C23" s="16" t="n"/>
+      <c r="C23" s="16" t="inlineStr">
+        <is>
+          <t>61101-4259596-1</t>
+        </is>
+      </c>
       <c r="D23" s="45" t="inlineStr">
         <is>
-          <t>Mashallah G/S</t>
+          <t>MASHALLAH GENERAL STORE</t>
         </is>
       </c>
       <c r="E23" s="45" t="inlineStr">
@@ -2805,10 +2829,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="41" t="n"/>
-      <c r="C24" s="16" t="n"/>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>37405-1203846-2</t>
+        </is>
+      </c>
       <c r="D24" s="45" t="inlineStr">
         <is>
-          <t>Kurum Traders</t>
+          <t>KURUM TRADERS</t>
         </is>
       </c>
       <c r="E24" s="45" t="inlineStr">
@@ -2877,10 +2905,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="41" t="n"/>
-      <c r="C25" s="16" t="n"/>
+      <c r="C25" s="16" t="inlineStr">
+        <is>
+          <t>61101-8945241-3</t>
+        </is>
+      </c>
       <c r="D25" s="45" t="inlineStr">
         <is>
-          <t>Babar Al Meher</t>
+          <t>BABAR AL MEHER</t>
         </is>
       </c>
       <c r="E25" s="45" t="inlineStr">
@@ -2948,10 +2980,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="n"/>
-      <c r="C26" s="16" t="n"/>
+      <c r="C26" s="16" t="inlineStr">
+        <is>
+          <t>37405-1243621-9</t>
+        </is>
+      </c>
       <c r="D26" s="45" t="inlineStr">
         <is>
-          <t>Muneeb Al Mehr</t>
+          <t>MUNEEB AL MEHR</t>
         </is>
       </c>
       <c r="E26" s="45" t="inlineStr">
@@ -3019,10 +3055,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="41" t="n"/>
-      <c r="C27" s="16" t="n"/>
+      <c r="C27" s="16" t="inlineStr">
+        <is>
+          <t>11201-9921777-9</t>
+        </is>
+      </c>
       <c r="D27" s="45" t="inlineStr">
         <is>
-          <t>Jan Marwat S/S</t>
+          <t>JAN MARWAT SUPER STORE</t>
         </is>
       </c>
       <c r="E27" s="45" t="inlineStr">
@@ -3090,10 +3130,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="41" t="n"/>
-      <c r="C28" s="16" t="n"/>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>61101-1312965-9</t>
+        </is>
+      </c>
       <c r="D28" s="45" t="inlineStr">
         <is>
-          <t>Abdul sattar Trader</t>
+          <t>ABDUL SATTAR TRADER</t>
         </is>
       </c>
       <c r="E28" s="45" t="inlineStr">
@@ -3164,7 +3208,7 @@
       <c r="C29" s="16" t="n"/>
       <c r="D29" s="45" t="inlineStr">
         <is>
-          <t>Asghar Ali G/S</t>
+          <t>ASGHAR ALI GENERAL STORE</t>
         </is>
       </c>
       <c r="E29" s="45" t="inlineStr">
@@ -3232,10 +3276,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="41" t="n"/>
-      <c r="C30" s="64" t="n"/>
+      <c r="C30" s="64" t="inlineStr">
+        <is>
+          <t>61101-1824499-9</t>
+        </is>
+      </c>
       <c r="D30" s="45" t="inlineStr">
         <is>
-          <t>Sadaat G/S</t>
+          <t>SADAAT GENERAL STORE</t>
         </is>
       </c>
       <c r="E30" s="45" t="inlineStr">
@@ -3303,10 +3351,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="41" t="n"/>
-      <c r="C31" s="17" t="n"/>
+      <c r="C31" s="17" t="inlineStr">
+        <is>
+          <t>17201-2214026-7</t>
+        </is>
+      </c>
       <c r="D31" s="30" t="inlineStr">
         <is>
-          <t>Insaf G/S</t>
+          <t>INSAF GENERAL STORE</t>
         </is>
       </c>
       <c r="E31" s="45" t="inlineStr">
@@ -3376,7 +3428,7 @@
       <c r="C32" s="16" t="n"/>
       <c r="D32" s="45" t="inlineStr">
         <is>
-          <t>Al Mehria Sadaat</t>
+          <t>AL MEHRIA SADAAT</t>
         </is>
       </c>
       <c r="E32" s="45" t="inlineStr">
@@ -3446,7 +3498,7 @@
       <c r="C33" s="16" t="n"/>
       <c r="D33" s="45" t="inlineStr">
         <is>
-          <t>Abbasi C&amp;C</t>
+          <t>ABBASI CASH AND CARRY</t>
         </is>
       </c>
       <c r="E33" s="45" t="inlineStr">
@@ -3513,10 +3565,14 @@
         <v>34</v>
       </c>
       <c r="B34" s="41" t="n"/>
-      <c r="C34" s="16" t="n"/>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>13503-7462324-3</t>
+        </is>
+      </c>
       <c r="D34" s="45" t="inlineStr">
         <is>
-          <t>Al khair Trader</t>
+          <t>AL KHAIR TRADER</t>
         </is>
       </c>
       <c r="E34" s="45" t="inlineStr">
@@ -3586,7 +3642,7 @@
       <c r="C35" s="16" t="n"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shakir G/S</t>
+          <t>SHAKIR GENERAL STORE</t>
         </is>
       </c>
       <c r="E35" s="45" t="inlineStr">
@@ -3653,10 +3709,14 @@
       <c r="A36" s="52" t="n">
         <v>36</v>
       </c>
-      <c r="C36" s="16" t="n"/>
+      <c r="C36" s="16" t="inlineStr">
+        <is>
+          <t>37405-1903710-9</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Islamabad G/S</t>
+          <t>ISLAMABAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E36" s="45" t="inlineStr">
@@ -3724,10 +3784,14 @@
         <v>37</v>
       </c>
       <c r="B37" s="41" t="n"/>
-      <c r="C37" s="16" t="n"/>
+      <c r="C37" s="16" t="inlineStr">
+        <is>
+          <t>17201-9672033-7</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>New Four Brother G/S</t>
+          <t>NEW FOUR BROTHER GENERAL STORE</t>
         </is>
       </c>
       <c r="E37" s="45" t="inlineStr">
@@ -3795,10 +3859,14 @@
         <v>38</v>
       </c>
       <c r="B38" s="41" t="n"/>
-      <c r="C38" s="16" t="n"/>
+      <c r="C38" s="16" t="inlineStr">
+        <is>
+          <t>16204-0585197-0</t>
+        </is>
+      </c>
       <c r="D38" s="45" t="inlineStr">
         <is>
-          <t>IR Mart</t>
+          <t>IR MART</t>
         </is>
       </c>
       <c r="E38" s="45" t="inlineStr">
@@ -3892,7 +3960,7 @@
       <c r="C39" s="17" t="n"/>
       <c r="D39" s="30" t="inlineStr">
         <is>
-          <t>Mart 7</t>
+          <t>MART 7</t>
         </is>
       </c>
       <c r="E39" s="45" t="inlineStr">
@@ -3986,7 +4054,7 @@
       <c r="C40" s="64" t="n"/>
       <c r="D40" s="45" t="inlineStr">
         <is>
-          <t>Abbasi Trader</t>
+          <t>ABBASI TRADER</t>
         </is>
       </c>
       <c r="E40" s="45" t="inlineStr">
@@ -4074,10 +4142,14 @@
         <v>41</v>
       </c>
       <c r="B41" s="41" t="n"/>
-      <c r="C41" s="16" t="n"/>
+      <c r="C41" s="16" t="inlineStr">
+        <is>
+          <t>13503-9413771-1</t>
+        </is>
+      </c>
       <c r="D41" s="45" t="inlineStr">
         <is>
-          <t>Mashallah K/S</t>
+          <t>MASHALLAH KARYANA STORE</t>
         </is>
       </c>
       <c r="E41" s="45" t="inlineStr">
@@ -4167,10 +4239,14 @@
         <v>42</v>
       </c>
       <c r="B42" s="41" t="n"/>
-      <c r="C42" s="17" t="n"/>
+      <c r="C42" s="17" t="inlineStr">
+        <is>
+          <t>37405-2936789-1</t>
+        </is>
+      </c>
       <c r="D42" s="30" t="inlineStr">
         <is>
-          <t>Khuram G/S</t>
+          <t>KHURAM GENERAL STORE</t>
         </is>
       </c>
       <c r="E42" s="45" t="inlineStr">
@@ -4260,10 +4336,14 @@
         <v>43</v>
       </c>
       <c r="B43" s="41" t="n"/>
-      <c r="C43" s="16" t="n"/>
+      <c r="C43" s="16" t="inlineStr">
+        <is>
+          <t>37405-8004953-9</t>
+        </is>
+      </c>
       <c r="D43" s="45" t="inlineStr">
         <is>
-          <t>Al syed G/S</t>
+          <t>AL SYED GENERAL STORE</t>
         </is>
       </c>
       <c r="E43" s="45" t="inlineStr">
@@ -4351,10 +4431,14 @@
         <v>44</v>
       </c>
       <c r="B44" s="41" t="n"/>
-      <c r="C44" s="16" t="n"/>
+      <c r="C44" s="16" t="inlineStr">
+        <is>
+          <t>37405-5129214-2</t>
+        </is>
+      </c>
       <c r="D44" s="45" t="inlineStr">
         <is>
-          <t>Friends Super mart</t>
+          <t>FRIENDS SUPER MART</t>
         </is>
       </c>
       <c r="E44" s="45" t="inlineStr">
@@ -4445,7 +4529,7 @@
       <c r="C45" s="16" t="n"/>
       <c r="D45" s="45" t="inlineStr">
         <is>
-          <t>Daniyal G/S</t>
+          <t>DANIYAL GENERAL STORE</t>
         </is>
       </c>
       <c r="E45" s="45" t="inlineStr">
@@ -4533,10 +4617,14 @@
         <v>46</v>
       </c>
       <c r="B46" s="41" t="n"/>
-      <c r="C46" s="64" t="n"/>
+      <c r="C46" s="64" t="inlineStr">
+        <is>
+          <t>61101-1802292-1</t>
+        </is>
+      </c>
       <c r="D46" s="45" t="inlineStr">
         <is>
-          <t>Abdul rehman G/S</t>
+          <t>ABDUL REHMAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E46" s="45" t="inlineStr">
@@ -4629,7 +4717,7 @@
       <c r="C47" s="16" t="n"/>
       <c r="D47" s="45" t="inlineStr">
         <is>
-          <t>Abu zain bakers</t>
+          <t>ABU ZAIN BAKERS</t>
         </is>
       </c>
       <c r="E47" s="45" t="inlineStr">
@@ -4719,10 +4807,14 @@
         <v>48</v>
       </c>
       <c r="B48" s="41" t="n"/>
-      <c r="C48" s="16" t="n"/>
+      <c r="C48" s="16" t="inlineStr">
+        <is>
+          <t>37405-3259423-3</t>
+        </is>
+      </c>
       <c r="D48" s="45" t="inlineStr">
         <is>
-          <t>Kabeer utility store</t>
+          <t>KABEER UTILITY STORE</t>
         </is>
       </c>
       <c r="E48" s="45" t="inlineStr">
@@ -4815,7 +4907,7 @@
       <c r="C49" s="16" t="n"/>
       <c r="D49" s="45" t="inlineStr">
         <is>
-          <t>Baqir G/S</t>
+          <t>BAQIR GENERAL STORE</t>
         </is>
       </c>
       <c r="E49" s="45" t="inlineStr">
@@ -4908,7 +5000,7 @@
       <c r="C50" s="16" t="n"/>
       <c r="D50" s="45" t="inlineStr">
         <is>
-          <t>Mehad G/S</t>
+          <t>MEHAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E50" s="45" t="inlineStr">
@@ -5001,7 +5093,7 @@
       <c r="C51" s="16" t="n"/>
       <c r="D51" s="45" t="inlineStr">
         <is>
-          <t>Makkah Traders</t>
+          <t>MAKKAH TRADERS</t>
         </is>
       </c>
       <c r="E51" s="45" t="inlineStr">
@@ -5091,10 +5183,14 @@
         <v>52</v>
       </c>
       <c r="B52" s="41" t="n"/>
-      <c r="C52" s="16" t="n"/>
+      <c r="C52" s="16" t="inlineStr">
+        <is>
+          <t>61101-2648969-5</t>
+        </is>
+      </c>
       <c r="D52" s="45" t="inlineStr">
         <is>
-          <t>Bismillah Traders</t>
+          <t>BISMILLAH TRADERS</t>
         </is>
       </c>
       <c r="E52" s="45" t="inlineStr">
@@ -5187,7 +5283,7 @@
       <c r="C53" s="16" t="n"/>
       <c r="D53" s="45" t="inlineStr">
         <is>
-          <t>Deewan Mart</t>
+          <t>DEEWAN MART</t>
         </is>
       </c>
       <c r="E53" s="45" t="inlineStr">
@@ -5280,7 +5376,7 @@
       <c r="C54" s="16" t="n"/>
       <c r="D54" s="45" t="inlineStr">
         <is>
-          <t>Boots Chemist store</t>
+          <t>BOOTS CHEMIST STORE</t>
         </is>
       </c>
       <c r="E54" s="45" t="inlineStr">
@@ -5373,7 +5469,7 @@
       <c r="C55" s="16" t="n"/>
       <c r="D55" s="45" t="inlineStr">
         <is>
-          <t>Al khair Traders</t>
+          <t>AL KHAIR TRADERS</t>
         </is>
       </c>
       <c r="E55" s="45" t="inlineStr">
@@ -5463,10 +5559,14 @@
         <v>56</v>
       </c>
       <c r="B56" s="41" t="n"/>
-      <c r="C56" s="16" t="n"/>
+      <c r="C56" s="16" t="inlineStr">
+        <is>
+          <t>61101-9442805-1</t>
+        </is>
+      </c>
       <c r="D56" s="45" t="inlineStr">
         <is>
-          <t>Awami G/S</t>
+          <t>AWAMI GENERAL STORE</t>
         </is>
       </c>
       <c r="E56" s="45" t="inlineStr">
@@ -5559,7 +5659,7 @@
       <c r="C57" s="16" t="n"/>
       <c r="D57" s="45" t="inlineStr">
         <is>
-          <t>Chaudary Bros G/S</t>
+          <t>CHAUDARY BROS GENERAL STORE</t>
         </is>
       </c>
       <c r="E57" s="45" t="inlineStr">
@@ -5652,7 +5752,7 @@
       <c r="C58" s="17" t="n"/>
       <c r="D58" s="30" t="inlineStr">
         <is>
-          <t>Sarhad G/S</t>
+          <t>SARHAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E58" s="45" t="inlineStr">
@@ -5742,10 +5842,14 @@
         <v>59</v>
       </c>
       <c r="B59" s="41" t="n"/>
-      <c r="C59" s="16" t="n"/>
+      <c r="C59" s="16" t="inlineStr">
+        <is>
+          <t>37405-6037023-1</t>
+        </is>
+      </c>
       <c r="D59" s="32" t="inlineStr">
         <is>
-          <t>786 G/S</t>
+          <t>786 GENERAL STORE</t>
         </is>
       </c>
       <c r="E59" s="45" t="inlineStr">
@@ -5833,10 +5937,14 @@
         <v>60</v>
       </c>
       <c r="B60" s="41" t="n"/>
-      <c r="C60" s="16" t="n"/>
+      <c r="C60" s="16" t="inlineStr">
+        <is>
+          <t>37405-5102398-6</t>
+        </is>
+      </c>
       <c r="D60" s="45" t="inlineStr">
         <is>
-          <t>Capital Mart</t>
+          <t>CAPITAL MART</t>
         </is>
       </c>
       <c r="E60" s="45" t="inlineStr">
@@ -5924,7 +6032,7 @@
       <c r="C61" s="16" t="n"/>
       <c r="D61" s="45" t="inlineStr">
         <is>
-          <t>Naik Amal G/S</t>
+          <t>NAIK AMAL GENERAL STORE</t>
         </is>
       </c>
       <c r="E61" s="45" t="inlineStr">
@@ -6009,10 +6117,14 @@
         <v>62</v>
       </c>
       <c r="B62" s="41" t="n"/>
-      <c r="C62" s="16" t="n"/>
+      <c r="C62" s="16" t="inlineStr">
+        <is>
+          <t>61101-2587158-1</t>
+        </is>
+      </c>
       <c r="D62" s="45" t="inlineStr">
         <is>
-          <t>Ghosia G/S</t>
+          <t>GHOSIA GENERAL STORE</t>
         </is>
       </c>
       <c r="E62" s="45" t="inlineStr">
@@ -6095,10 +6207,14 @@
         <v>63</v>
       </c>
       <c r="B63" s="41" t="n"/>
-      <c r="C63" s="16" t="n"/>
+      <c r="C63" s="16" t="inlineStr">
+        <is>
+          <t>17101-0305858-9</t>
+        </is>
+      </c>
       <c r="D63" s="45" t="inlineStr">
         <is>
-          <t>Saad G/S</t>
+          <t>SAAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E63" s="45" t="inlineStr">
@@ -6186,7 +6302,7 @@
       <c r="C64" s="16" t="n"/>
       <c r="D64" s="45" t="inlineStr">
         <is>
-          <t>Liberty Store</t>
+          <t>LIBERTY STORE</t>
         </is>
       </c>
       <c r="E64" s="45" t="inlineStr">
@@ -6274,7 +6390,7 @@
       <c r="C65" s="16" t="n"/>
       <c r="D65" s="45" t="inlineStr">
         <is>
-          <t>Express Mart</t>
+          <t>EXPRESS MART</t>
         </is>
       </c>
       <c r="E65" s="45" t="inlineStr">
@@ -6362,7 +6478,7 @@
       <c r="C66" s="16" t="n"/>
       <c r="D66" s="45" t="inlineStr">
         <is>
-          <t>Green Grocery</t>
+          <t>GREEN GROCERY</t>
         </is>
       </c>
       <c r="E66" s="45" t="inlineStr">
@@ -6447,10 +6563,14 @@
         <v>67</v>
       </c>
       <c r="B67" s="41" t="n"/>
-      <c r="C67" s="16" t="n"/>
+      <c r="C67" s="16" t="inlineStr">
+        <is>
+          <t>17201-1192105-9</t>
+        </is>
+      </c>
       <c r="D67" s="45" t="inlineStr">
         <is>
-          <t>Khattak S/S</t>
+          <t>KHATTAK SUPER STORE</t>
         </is>
       </c>
       <c r="E67" s="45" t="inlineStr">
@@ -6538,7 +6658,7 @@
       <c r="C68" s="16" t="n"/>
       <c r="D68" s="45" t="inlineStr">
         <is>
-          <t>Best buy S/S</t>
+          <t>BEST BUY SUPER STORE</t>
         </is>
       </c>
       <c r="E68" s="45" t="inlineStr">
@@ -6626,7 +6746,7 @@
       <c r="C69" s="16" t="n"/>
       <c r="D69" s="45" t="inlineStr">
         <is>
-          <t>Siddqui Store</t>
+          <t>SIDDQUI STORE</t>
         </is>
       </c>
       <c r="E69" s="45" t="inlineStr">
@@ -6714,7 +6834,7 @@
       <c r="C70" s="16" t="n"/>
       <c r="D70" s="45" t="inlineStr">
         <is>
-          <t>Margalla S/S</t>
+          <t>MARGALLA SUPER STORE</t>
         </is>
       </c>
       <c r="E70" s="45" t="inlineStr">
@@ -6802,7 +6922,7 @@
       <c r="C71" s="16" t="n"/>
       <c r="D71" s="45" t="inlineStr">
         <is>
-          <t>Paradise Super Store</t>
+          <t>PARADISE SUPER STORE</t>
         </is>
       </c>
       <c r="E71" s="45" t="inlineStr">
@@ -6890,7 +7010,7 @@
       <c r="C72" s="16" t="n"/>
       <c r="D72" s="45" t="inlineStr">
         <is>
-          <t>RS Sweets &amp; Bakers</t>
+          <t>RS SWEETS &amp; BAKERS</t>
         </is>
       </c>
       <c r="E72" s="45" t="inlineStr">
@@ -6975,10 +7095,14 @@
         <v>73</v>
       </c>
       <c r="B73" s="41" t="n"/>
-      <c r="C73" s="16" t="n"/>
+      <c r="C73" s="16" t="inlineStr">
+        <is>
+          <t>17201-6061189-7</t>
+        </is>
+      </c>
       <c r="D73" s="45" t="inlineStr">
         <is>
-          <t>Khattak G/S</t>
+          <t>KHATTAK GENERAL STORE</t>
         </is>
       </c>
       <c r="E73" s="45" t="inlineStr">
@@ -7064,7 +7188,7 @@
       <c r="C74" s="16" t="n"/>
       <c r="D74" s="45" t="inlineStr">
         <is>
-          <t>SIDDIQ G/S</t>
+          <t>SIDDIQ GENERAL STORE</t>
         </is>
       </c>
       <c r="E74" s="45" t="inlineStr">
@@ -7152,7 +7276,7 @@
       <c r="C75" s="16" t="n"/>
       <c r="D75" s="45" t="inlineStr">
         <is>
-          <t>Pakeeza Super Store</t>
+          <t>PAKEEZA SUPER STORE</t>
         </is>
       </c>
       <c r="E75" s="45" t="inlineStr">
@@ -7237,10 +7361,14 @@
         <v>76</v>
       </c>
       <c r="B76" s="41" t="n"/>
-      <c r="C76" s="16" t="n"/>
+      <c r="C76" s="16" t="inlineStr">
+        <is>
+          <t>37405-1025314-5</t>
+        </is>
+      </c>
       <c r="D76" s="45" t="inlineStr">
         <is>
-          <t>Raja G/S</t>
+          <t>RAJA GENERAL STORE</t>
         </is>
       </c>
       <c r="E76" s="45" t="inlineStr">
@@ -7328,7 +7456,7 @@
       <c r="C77" s="16" t="n"/>
       <c r="D77" s="45" t="inlineStr">
         <is>
-          <t>Hamza G/S</t>
+          <t>HAMZA GENERAL STORE</t>
         </is>
       </c>
       <c r="E77" s="45" t="inlineStr">
@@ -7416,7 +7544,7 @@
       <c r="C78" s="16" t="n"/>
       <c r="D78" s="45" t="inlineStr">
         <is>
-          <t>Khasif G/S</t>
+          <t>KHASIF GENERAL STORE</t>
         </is>
       </c>
       <c r="E78" s="45" t="inlineStr">
@@ -7501,10 +7629,14 @@
         <v>79</v>
       </c>
       <c r="B79" s="41" t="n"/>
-      <c r="C79" s="16" t="n"/>
+      <c r="C79" s="16" t="inlineStr">
+        <is>
+          <t>13302-8263675-5</t>
+        </is>
+      </c>
       <c r="D79" s="45" t="inlineStr">
         <is>
-          <t>Abbasi G/S</t>
+          <t>ABBASI GENERAL STORE</t>
         </is>
       </c>
       <c r="E79" s="45" t="inlineStr">
@@ -7589,10 +7721,14 @@
         <v>80</v>
       </c>
       <c r="B80" s="41" t="n"/>
-      <c r="C80" s="16" t="n"/>
+      <c r="C80" s="16" t="inlineStr">
+        <is>
+          <t>37405-6037023-1</t>
+        </is>
+      </c>
       <c r="D80" s="45" t="inlineStr">
         <is>
-          <t>786 G/S</t>
+          <t>786 GENERAL STORE</t>
         </is>
       </c>
       <c r="E80" s="45" t="inlineStr">
@@ -7677,10 +7813,14 @@
         <v>81</v>
       </c>
       <c r="B81" s="41" t="n"/>
-      <c r="C81" s="16" t="n"/>
+      <c r="C81" s="16" t="inlineStr">
+        <is>
+          <t>17201-1192105-9</t>
+        </is>
+      </c>
       <c r="D81" s="45" t="inlineStr">
         <is>
-          <t>Khattak S/S</t>
+          <t>KHATTAK SUPER STORE</t>
         </is>
       </c>
       <c r="E81" s="45" t="inlineStr">
@@ -7768,7 +7908,7 @@
       <c r="C82" s="16" t="n"/>
       <c r="D82" s="45" t="inlineStr">
         <is>
-          <t>Shahid Khan G/S</t>
+          <t>SHAHID KHAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E82" s="45" t="inlineStr">
@@ -7856,7 +7996,7 @@
       <c r="C83" s="16" t="n"/>
       <c r="D83" s="45" t="inlineStr">
         <is>
-          <t>Pak Sharhad G/S</t>
+          <t>PAK SHARHAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E83" s="45" t="inlineStr">
@@ -7944,7 +8084,7 @@
       <c r="C84" s="16" t="n"/>
       <c r="D84" s="45" t="inlineStr">
         <is>
-          <t>Bilal G/S</t>
+          <t>BILAL GENERAL STORE</t>
         </is>
       </c>
       <c r="E84" s="45" t="inlineStr">
@@ -8032,7 +8172,7 @@
       <c r="C85" s="16" t="n"/>
       <c r="D85" s="45" t="inlineStr">
         <is>
-          <t>Niyazi G/s</t>
+          <t>NIYAZI G/S</t>
         </is>
       </c>
       <c r="E85" s="45" t="inlineStr">
@@ -8120,7 +8260,7 @@
       <c r="C86" s="16" t="n"/>
       <c r="D86" s="32" t="inlineStr">
         <is>
-          <t>Tahari G/s</t>
+          <t>TAHARI G/S</t>
         </is>
       </c>
       <c r="E86" s="45" t="inlineStr">
@@ -8205,10 +8345,14 @@
         <v>87</v>
       </c>
       <c r="B87" s="41" t="n"/>
-      <c r="C87" s="16" t="n"/>
+      <c r="C87" s="16" t="inlineStr">
+        <is>
+          <t>37405-6655854-3</t>
+        </is>
+      </c>
       <c r="D87" s="45" t="inlineStr">
         <is>
-          <t>Bhatti G/S</t>
+          <t>BHATTI GENERAL STORE</t>
         </is>
       </c>
       <c r="E87" s="45" t="inlineStr">
@@ -8293,10 +8437,14 @@
         <v>88</v>
       </c>
       <c r="B88" s="41" t="n"/>
-      <c r="C88" s="16" t="n"/>
+      <c r="C88" s="16" t="inlineStr">
+        <is>
+          <t>37405-4218612-9</t>
+        </is>
+      </c>
       <c r="D88" s="45" t="inlineStr">
         <is>
-          <t>Insaf Atta Chaki</t>
+          <t>INSAF ATTA CHAKI</t>
         </is>
       </c>
       <c r="E88" s="45" t="inlineStr">
@@ -8384,7 +8532,7 @@
       <c r="C89" s="16" t="n"/>
       <c r="D89" s="45" t="inlineStr">
         <is>
-          <t>Luqman GS</t>
+          <t>LUQMAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E89" s="45" t="inlineStr">
@@ -8472,7 +8620,7 @@
       <c r="C90" s="16" t="n"/>
       <c r="D90" s="45" t="inlineStr">
         <is>
-          <t>Bismliiah K/S</t>
+          <t>BISMLIIAH KARYANA STORE</t>
         </is>
       </c>
       <c r="E90" s="45" t="inlineStr">
@@ -8557,10 +8705,14 @@
         <v>91</v>
       </c>
       <c r="B91" s="41" t="n"/>
-      <c r="C91" s="16" t="n"/>
+      <c r="C91" s="16" t="inlineStr">
+        <is>
+          <t>37405-9115049-5</t>
+        </is>
+      </c>
       <c r="D91" s="45" t="inlineStr">
         <is>
-          <t>Allah tawakkal GS</t>
+          <t>ALLAH TAWAKKAL GENERAL STORE</t>
         </is>
       </c>
       <c r="E91" s="45" t="inlineStr">
@@ -8648,7 +8800,7 @@
       <c r="C92" s="16" t="n"/>
       <c r="D92" s="45" t="inlineStr">
         <is>
-          <t>Shah g GS</t>
+          <t>SHAH G GENERAL STORE</t>
         </is>
       </c>
       <c r="E92" s="45" t="inlineStr">
@@ -8736,7 +8888,7 @@
       <c r="C93" s="16" t="n"/>
       <c r="D93" s="45" t="inlineStr">
         <is>
-          <t>Noor GS</t>
+          <t>NOOR GENERAL STORE</t>
         </is>
       </c>
       <c r="E93" s="45" t="inlineStr">
@@ -8824,7 +8976,7 @@
       <c r="C94" s="16" t="n"/>
       <c r="D94" s="45" t="inlineStr">
         <is>
-          <t>Mughal g/s</t>
+          <t>MUGHAL G/S</t>
         </is>
       </c>
       <c r="E94" s="45" t="inlineStr">
@@ -8912,7 +9064,7 @@
       <c r="C95" s="16" t="n"/>
       <c r="D95" s="45" t="inlineStr">
         <is>
-          <t>Malik S/s</t>
+          <t>MALIK S/S</t>
         </is>
       </c>
       <c r="E95" s="45" t="inlineStr">
@@ -9000,7 +9152,7 @@
       <c r="C96" s="16" t="n"/>
       <c r="D96" s="45" t="inlineStr">
         <is>
-          <t>M.ilyas GS</t>
+          <t>M.ILYAS GENERAL STORE</t>
         </is>
       </c>
       <c r="E96" s="45" t="inlineStr">
@@ -9088,7 +9240,7 @@
       <c r="C97" s="16" t="n"/>
       <c r="D97" s="45" t="inlineStr">
         <is>
-          <t>Sardar trd.</t>
+          <t>SARDAR TRD.</t>
         </is>
       </c>
       <c r="E97" s="45" t="inlineStr">
@@ -9171,10 +9323,14 @@
         <v>98</v>
       </c>
       <c r="B98" s="41" t="n"/>
-      <c r="C98" s="16" t="n"/>
+      <c r="C98" s="16" t="inlineStr">
+        <is>
+          <t>34101-9518750-7</t>
+        </is>
+      </c>
       <c r="D98" s="45" t="inlineStr">
         <is>
-          <t>Zeeshan g/s</t>
+          <t>ZEESHAN G/S</t>
         </is>
       </c>
       <c r="E98" s="45" t="inlineStr">
@@ -9260,7 +9416,7 @@
       <c r="C99" s="16" t="n"/>
       <c r="D99" s="45" t="inlineStr">
         <is>
-          <t>Aziz Utility Store</t>
+          <t>AZIZ UTILITY STORE</t>
         </is>
       </c>
       <c r="E99" s="45" t="inlineStr">
@@ -9345,10 +9501,14 @@
         <v>100</v>
       </c>
       <c r="B100" s="41" t="n"/>
-      <c r="C100" s="16" t="n"/>
+      <c r="C100" s="16" t="inlineStr">
+        <is>
+          <t>61101-1802292-1</t>
+        </is>
+      </c>
       <c r="D100" s="45" t="inlineStr">
         <is>
-          <t>Abdul Rehman G/S</t>
+          <t>ABDUL REHMAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E100" s="45" t="inlineStr">
@@ -9433,10 +9593,14 @@
         <v>101</v>
       </c>
       <c r="B101" s="41" t="n"/>
-      <c r="C101" s="16" t="n"/>
+      <c r="C101" s="16" t="inlineStr">
+        <is>
+          <t>37405-3259423-3</t>
+        </is>
+      </c>
       <c r="D101" s="45" t="inlineStr">
         <is>
-          <t>Kabeer utility store</t>
+          <t>KABEER UTILITY STORE</t>
         </is>
       </c>
       <c r="E101" s="45" t="inlineStr">
@@ -9521,10 +9685,14 @@
         <v>102</v>
       </c>
       <c r="B102" s="41" t="n"/>
-      <c r="C102" s="16" t="n"/>
+      <c r="C102" s="16" t="inlineStr">
+        <is>
+          <t>61101-7422125-3</t>
+        </is>
+      </c>
       <c r="D102" s="30" t="inlineStr">
         <is>
-          <t>Awais G/S</t>
+          <t>AWAIS GENERAL STORE</t>
         </is>
       </c>
       <c r="E102" s="45" t="inlineStr">
@@ -9609,10 +9777,14 @@
         <v>103</v>
       </c>
       <c r="B103" s="41" t="n"/>
-      <c r="C103" s="16" t="n"/>
+      <c r="C103" s="16" t="inlineStr">
+        <is>
+          <t>34201-7858581-1</t>
+        </is>
+      </c>
       <c r="D103" s="45" t="inlineStr">
         <is>
-          <t>Sufi Auto Bakers</t>
+          <t>SUFI AUTO BAKERS</t>
         </is>
       </c>
       <c r="E103" s="45" t="inlineStr">
@@ -9700,7 +9872,7 @@
       <c r="C104" s="64" t="n"/>
       <c r="D104" s="45" t="inlineStr">
         <is>
-          <t>Pak Sharhad G/S</t>
+          <t>PAK SHARHAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E104" s="45" t="inlineStr">
@@ -9785,10 +9957,14 @@
         <v>105</v>
       </c>
       <c r="B105" s="41" t="n"/>
-      <c r="C105" s="16" t="n"/>
+      <c r="C105" s="16" t="inlineStr">
+        <is>
+          <t>61101-1803171-9</t>
+        </is>
+      </c>
       <c r="D105" s="45" t="inlineStr">
         <is>
-          <t>Marhaba Baker</t>
+          <t>MARHABA BAKER</t>
         </is>
       </c>
       <c r="E105" s="45" t="inlineStr">
@@ -9877,7 +10053,7 @@
       <c r="C106" s="16" t="n"/>
       <c r="D106" s="45" t="inlineStr">
         <is>
-          <t>Punjab Fair Price</t>
+          <t>PUNJAB FAIR PRICE</t>
         </is>
       </c>
       <c r="E106" s="45" t="inlineStr">
@@ -9966,7 +10142,7 @@
       <c r="C107" s="16" t="n"/>
       <c r="D107" s="45" t="inlineStr">
         <is>
-          <t>Punjab Fair Price</t>
+          <t>PUNJAB FAIR PRICE</t>
         </is>
       </c>
       <c r="E107" s="45" t="inlineStr">
@@ -10050,10 +10226,14 @@
         <v>108</v>
       </c>
       <c r="B108" s="41" t="n"/>
-      <c r="C108" s="16" t="n"/>
+      <c r="C108" s="16" t="inlineStr">
+        <is>
+          <t>61101-2587158-1</t>
+        </is>
+      </c>
       <c r="D108" s="45" t="inlineStr">
         <is>
-          <t>Ghosia G/S</t>
+          <t>GHOSIA GENERAL STORE</t>
         </is>
       </c>
       <c r="E108" s="45" t="inlineStr">
@@ -10142,7 +10322,7 @@
       <c r="C109" s="16" t="n"/>
       <c r="D109" s="32" t="inlineStr">
         <is>
-          <t>Al Haram G/S</t>
+          <t>AL HARAM GENERAL STORE</t>
         </is>
       </c>
       <c r="E109" s="45" t="inlineStr">
@@ -10228,10 +10408,14 @@
         <v>110</v>
       </c>
       <c r="B110" s="41" t="n"/>
-      <c r="C110" s="16" t="n"/>
+      <c r="C110" s="16" t="inlineStr">
+        <is>
+          <t>61101-2619535-5</t>
+        </is>
+      </c>
       <c r="D110" s="45" t="inlineStr">
         <is>
-          <t>Kashmir S/S</t>
+          <t>KASHMIR SUPER STORE</t>
         </is>
       </c>
       <c r="E110" s="45" t="inlineStr">
@@ -10317,10 +10501,14 @@
         <v>112</v>
       </c>
       <c r="B111" s="41" t="n"/>
-      <c r="C111" s="16" t="n"/>
+      <c r="C111" s="16" t="inlineStr">
+        <is>
+          <t>61101-1945712-7</t>
+        </is>
+      </c>
       <c r="D111" s="45" t="inlineStr">
         <is>
-          <t>Safe way Store</t>
+          <t>SAFE WAY STORE</t>
         </is>
       </c>
       <c r="E111" s="45" t="inlineStr">
@@ -10406,10 +10594,14 @@
         <v>113</v>
       </c>
       <c r="B112" s="41" t="n"/>
-      <c r="C112" s="16" t="n"/>
+      <c r="C112" s="16" t="inlineStr">
+        <is>
+          <t>61101-3037011-5</t>
+        </is>
+      </c>
       <c r="D112" s="45" t="inlineStr">
         <is>
-          <t>Khattak Mart</t>
+          <t>KHATTAK MART</t>
         </is>
       </c>
       <c r="E112" s="45" t="inlineStr">
@@ -10498,7 +10690,7 @@
       <c r="C113" s="16" t="n"/>
       <c r="D113" s="45" t="inlineStr">
         <is>
-          <t>Rehman G/S</t>
+          <t>REHMAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E113" s="45" t="inlineStr">
@@ -10584,10 +10776,14 @@
         <v>115</v>
       </c>
       <c r="B114" s="41" t="n"/>
-      <c r="C114" s="16" t="n"/>
+      <c r="C114" s="16" t="inlineStr">
+        <is>
+          <t>13302-8263675-5</t>
+        </is>
+      </c>
       <c r="D114" s="45" t="inlineStr">
         <is>
-          <t>Abbasi G/S</t>
+          <t>ABBASI GENERAL STORE</t>
         </is>
       </c>
       <c r="E114" s="45" t="inlineStr">
@@ -10672,10 +10868,14 @@
         <v>116</v>
       </c>
       <c r="B115" s="41" t="n"/>
-      <c r="C115" s="16" t="n"/>
+      <c r="C115" s="16" t="inlineStr">
+        <is>
+          <t>14101-0395035-5</t>
+        </is>
+      </c>
       <c r="D115" s="45" t="inlineStr">
         <is>
-          <t>Bismillah G/S</t>
+          <t>BISMILLAH GENERAL STORE</t>
         </is>
       </c>
       <c r="E115" s="45" t="inlineStr">
@@ -10763,7 +10963,7 @@
       <c r="C116" s="16" t="n"/>
       <c r="D116" s="45" t="inlineStr">
         <is>
-          <t>Abbasi Trader</t>
+          <t>ABBASI TRADER</t>
         </is>
       </c>
       <c r="E116" s="45" t="inlineStr">
@@ -10851,7 +11051,7 @@
       <c r="C117" s="16" t="n"/>
       <c r="D117" s="45" t="inlineStr">
         <is>
-          <t>Abbasi C&amp;C</t>
+          <t>ABBASI CASH AND CARRY</t>
         </is>
       </c>
       <c r="E117" s="45" t="inlineStr">
@@ -10937,7 +11137,7 @@
       <c r="C118" s="16" t="n"/>
       <c r="D118" s="45" t="inlineStr">
         <is>
-          <t>City Fair Price</t>
+          <t>CITY FAIR PRICE</t>
         </is>
       </c>
       <c r="E118" s="45" t="inlineStr">
@@ -11023,7 +11223,7 @@
       <c r="C119" s="16" t="n"/>
       <c r="D119" s="45" t="inlineStr">
         <is>
-          <t>Khurram G/S</t>
+          <t>KHURRAM GENERAL STORE</t>
         </is>
       </c>
       <c r="E119" s="45" t="inlineStr">
@@ -11111,7 +11311,7 @@
       <c r="C120" s="16" t="n"/>
       <c r="D120" s="45" t="inlineStr">
         <is>
-          <t>Mehran Fair Price</t>
+          <t>MEHRAN FAIR PRICE</t>
         </is>
       </c>
       <c r="E120" s="45" t="inlineStr">
@@ -11199,7 +11399,7 @@
       <c r="C121" s="16" t="n"/>
       <c r="D121" s="45" t="inlineStr">
         <is>
-          <t>UK trd.</t>
+          <t>UK TRD.</t>
         </is>
       </c>
       <c r="E121" s="45" t="inlineStr">
@@ -11284,10 +11484,14 @@
         <v>123</v>
       </c>
       <c r="B122" s="41" t="n"/>
-      <c r="C122" s="16" t="n"/>
+      <c r="C122" s="16" t="inlineStr">
+        <is>
+          <t>37405-5132896-1</t>
+        </is>
+      </c>
       <c r="D122" s="45" t="inlineStr">
         <is>
-          <t>Habib G/S</t>
+          <t>HABIB GENERAL STORE</t>
         </is>
       </c>
       <c r="E122" s="45" t="inlineStr">
@@ -11372,10 +11576,14 @@
         <v>124</v>
       </c>
       <c r="B123" s="41" t="n"/>
-      <c r="C123" s="16" t="n"/>
+      <c r="C123" s="16" t="inlineStr">
+        <is>
+          <t>37405-5197123-9</t>
+        </is>
+      </c>
       <c r="D123" s="45" t="inlineStr">
         <is>
-          <t>Bakht Munir G/S</t>
+          <t>BAKHT MUNIR GENERAL STORE</t>
         </is>
       </c>
       <c r="E123" s="45" t="inlineStr">
@@ -11460,10 +11668,14 @@
         <v>125</v>
       </c>
       <c r="B124" s="41" t="n"/>
-      <c r="C124" s="16" t="n"/>
+      <c r="C124" s="16" t="inlineStr">
+        <is>
+          <t>37405-5132896-1</t>
+        </is>
+      </c>
       <c r="D124" s="45" t="inlineStr">
         <is>
-          <t>Habib G/S</t>
+          <t>HABIB GENERAL STORE</t>
         </is>
       </c>
       <c r="E124" s="45" t="inlineStr">
@@ -11548,10 +11760,14 @@
         <v>126</v>
       </c>
       <c r="B125" s="41" t="n"/>
-      <c r="C125" s="16" t="n"/>
+      <c r="C125" s="16" t="inlineStr">
+        <is>
+          <t>61101-1938417-1</t>
+        </is>
+      </c>
       <c r="D125" s="45" t="inlineStr">
         <is>
-          <t>Ghousia GS</t>
+          <t>GHOUSIA GENERAL STORE</t>
         </is>
       </c>
       <c r="E125" s="45" t="inlineStr">
@@ -11636,10 +11852,14 @@
         <v>127</v>
       </c>
       <c r="B126" s="41" t="n"/>
-      <c r="C126" s="66" t="n"/>
+      <c r="C126" s="66" t="inlineStr">
+        <is>
+          <t>37405-0498027-1</t>
+        </is>
+      </c>
       <c r="D126" s="46" t="inlineStr">
         <is>
-          <t>Falcon bakers</t>
+          <t>FALCON BAKERS</t>
         </is>
       </c>
       <c r="E126" s="45" t="inlineStr">
@@ -11727,7 +11947,7 @@
       <c r="C127" s="17" t="n"/>
       <c r="D127" s="30" t="inlineStr">
         <is>
-          <t>Nawaz bro GS</t>
+          <t>NAWAZ BRO GENERAL STORE</t>
         </is>
       </c>
       <c r="E127" s="45" t="inlineStr">
@@ -11807,10 +12027,14 @@
         <v>129</v>
       </c>
       <c r="B128" s="41" t="n"/>
-      <c r="C128" s="16" t="n"/>
+      <c r="C128" s="16" t="inlineStr">
+        <is>
+          <t>17202-2190208-7</t>
+        </is>
+      </c>
       <c r="D128" s="45" t="inlineStr">
         <is>
-          <t>Kashif khattak GS</t>
+          <t>KASHIF KHATTAK GENERAL STORE</t>
         </is>
       </c>
       <c r="E128" s="45" t="inlineStr">
@@ -11893,7 +12117,7 @@
       <c r="C129" s="16" t="n"/>
       <c r="D129" s="45" t="inlineStr">
         <is>
-          <t>Basit Qureshi G/s</t>
+          <t>BASIT QURESHI G/S</t>
         </is>
       </c>
       <c r="E129" s="45" t="inlineStr">
@@ -11973,10 +12197,14 @@
         <v>131</v>
       </c>
       <c r="B130" s="16" t="n"/>
-      <c r="C130" s="16" t="n"/>
+      <c r="C130" s="16" t="inlineStr">
+        <is>
+          <t>14101-0395035-5</t>
+        </is>
+      </c>
       <c r="D130" s="45" t="inlineStr">
         <is>
-          <t>Bismillah GS</t>
+          <t>BISMILLAH GENERAL STORE</t>
         </is>
       </c>
       <c r="E130" s="45" t="inlineStr">
@@ -12056,10 +12284,14 @@
         <v>132</v>
       </c>
       <c r="B131" s="41" t="n"/>
-      <c r="C131" s="16" t="n"/>
+      <c r="C131" s="16" t="inlineStr">
+        <is>
+          <t>42201-33957447-5</t>
+        </is>
+      </c>
       <c r="D131" s="45" t="inlineStr">
         <is>
-          <t>Pak super store</t>
+          <t>PAK SUPER STORE</t>
         </is>
       </c>
       <c r="E131" s="45" t="inlineStr">
@@ -12140,7 +12372,7 @@
       <c r="C132" s="16" t="n"/>
       <c r="D132" s="45" t="inlineStr">
         <is>
-          <t>Bismillah 786 G/S</t>
+          <t>BISMILLAH 786 GENERAL STORE</t>
         </is>
       </c>
       <c r="E132" s="45" t="inlineStr">
@@ -12205,10 +12437,14 @@
         <v>133</v>
       </c>
       <c r="B133" s="41" t="n"/>
-      <c r="C133" s="16" t="n"/>
+      <c r="C133" s="16" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D133" s="45" t="inlineStr">
         <is>
-          <t>Malik G/S</t>
+          <t>MALIK GENERAL STORE</t>
         </is>
       </c>
       <c r="E133" s="45" t="inlineStr">
@@ -12288,10 +12524,14 @@
         <v>135</v>
       </c>
       <c r="B134" s="41" t="n"/>
-      <c r="C134" s="16" t="n"/>
+      <c r="C134" s="16" t="inlineStr">
+        <is>
+          <t>17201-2238655-5</t>
+        </is>
+      </c>
       <c r="D134" s="32" t="inlineStr">
         <is>
-          <t>Khyber G/S</t>
+          <t>KHYBER GENERAL STORE</t>
         </is>
       </c>
       <c r="E134" s="45" t="inlineStr">
@@ -12374,7 +12614,7 @@
       <c r="C135" s="16" t="n"/>
       <c r="D135" s="45" t="inlineStr">
         <is>
-          <t>Awaan Brothers</t>
+          <t>AWAAN BROTHERS</t>
         </is>
       </c>
       <c r="E135" s="45" t="inlineStr">
@@ -12457,7 +12697,7 @@
       <c r="C136" s="16" t="n"/>
       <c r="D136" s="45" t="inlineStr">
         <is>
-          <t>Sardar S/S</t>
+          <t>SARDAR SUPER STORE</t>
         </is>
       </c>
       <c r="E136" s="45" t="inlineStr">
@@ -12540,7 +12780,7 @@
       <c r="C137" s="16" t="n"/>
       <c r="D137" s="45" t="inlineStr">
         <is>
-          <t>Paracha S/S</t>
+          <t>PARACHA SUPER STORE</t>
         </is>
       </c>
       <c r="E137" s="45" t="inlineStr">
@@ -12623,7 +12863,7 @@
       <c r="C138" s="17" t="n"/>
       <c r="D138" s="30" t="inlineStr">
         <is>
-          <t>Marwat G/S</t>
+          <t>MARWAT GENERAL STORE</t>
         </is>
       </c>
       <c r="E138" s="45" t="inlineStr">
@@ -12706,7 +12946,7 @@
       <c r="C139" s="16" t="n"/>
       <c r="D139" s="45" t="inlineStr">
         <is>
-          <t>Lucky Khattak G/S</t>
+          <t>LUCKY KHATTAK GENERAL STORE</t>
         </is>
       </c>
       <c r="E139" s="45" t="inlineStr">
@@ -12786,10 +13026,14 @@
         <v>141</v>
       </c>
       <c r="B140" s="41" t="n"/>
-      <c r="C140" s="16" t="n"/>
+      <c r="C140" s="16" t="inlineStr">
+        <is>
+          <t>61101-4259596-1</t>
+        </is>
+      </c>
       <c r="D140" s="45" t="inlineStr">
         <is>
-          <t>Mashallah G/S</t>
+          <t>MASHALLAH GENERAL STORE</t>
         </is>
       </c>
       <c r="E140" s="45" t="inlineStr">
@@ -12872,7 +13116,7 @@
       <c r="C141" s="16" t="n"/>
       <c r="D141" s="45" t="inlineStr">
         <is>
-          <t>All syed G/s</t>
+          <t>ALL SYED G/S</t>
         </is>
       </c>
       <c r="E141" s="45" t="inlineStr">
@@ -12955,7 +13199,7 @@
       <c r="C142" s="64" t="n"/>
       <c r="D142" s="45" t="inlineStr">
         <is>
-          <t>M Ashraf G/S</t>
+          <t>M ASHRAF GENERAL STORE</t>
         </is>
       </c>
       <c r="E142" s="45" t="inlineStr">
@@ -13038,7 +13282,7 @@
       <c r="C143" s="16" t="n"/>
       <c r="D143" s="45" t="inlineStr">
         <is>
-          <t>Bismillah  G/S</t>
+          <t>BISMILLAH  GENERAL STORE</t>
         </is>
       </c>
       <c r="E143" s="45" t="inlineStr">
@@ -13121,7 +13365,7 @@
       <c r="C144" s="17" t="n"/>
       <c r="D144" s="30" t="inlineStr">
         <is>
-          <t>Hassan G/s</t>
+          <t>HASSAN G/S</t>
         </is>
       </c>
       <c r="E144" s="45" t="inlineStr">
@@ -13204,7 +13448,7 @@
       <c r="C145" s="17" t="n"/>
       <c r="D145" s="30" t="inlineStr">
         <is>
-          <t>Al Ghosia Ajmeria G/s</t>
+          <t>AL GHOSIA AJMERIA G/S</t>
         </is>
       </c>
       <c r="E145" s="45" t="inlineStr">
@@ -13287,7 +13531,7 @@
       <c r="C146" s="17" t="n"/>
       <c r="D146" s="30" t="inlineStr">
         <is>
-          <t>Aghaz G/S</t>
+          <t>AGHAZ GENERAL STORE</t>
         </is>
       </c>
       <c r="E146" s="45" t="inlineStr">
@@ -13370,7 +13614,7 @@
       <c r="C147" s="17" t="n"/>
       <c r="D147" s="30" t="inlineStr">
         <is>
-          <t>Hashim G/S</t>
+          <t>HASHIM GENERAL STORE</t>
         </is>
       </c>
       <c r="E147" s="45" t="inlineStr">
@@ -13450,10 +13694,14 @@
         <v>149</v>
       </c>
       <c r="B148" s="41" t="n"/>
-      <c r="C148" s="16" t="n"/>
+      <c r="C148" s="16" t="inlineStr">
+        <is>
+          <t>17201-6061189-7</t>
+        </is>
+      </c>
       <c r="D148" s="45" t="inlineStr">
         <is>
-          <t>Khattak g/s</t>
+          <t>KHATTAK G/S</t>
         </is>
       </c>
       <c r="E148" s="45" t="inlineStr">
@@ -13533,10 +13781,14 @@
         <v>150</v>
       </c>
       <c r="B149" s="41" t="n"/>
-      <c r="C149" s="16" t="n"/>
+      <c r="C149" s="16" t="inlineStr">
+        <is>
+          <t>17201-2171979-5</t>
+        </is>
+      </c>
       <c r="D149" s="45" t="inlineStr">
         <is>
-          <t>Pak makkah g/s</t>
+          <t>PAK MAKKAH G/S</t>
         </is>
       </c>
       <c r="E149" s="45" t="inlineStr">
@@ -13619,7 +13871,7 @@
       <c r="C150" s="64" t="n"/>
       <c r="D150" s="45" t="inlineStr">
         <is>
-          <t>Shafqat g/s</t>
+          <t>SHAFQAT G/S</t>
         </is>
       </c>
       <c r="E150" s="45" t="inlineStr">
@@ -13702,7 +13954,7 @@
       <c r="C151" s="16" t="n"/>
       <c r="D151" s="45" t="inlineStr">
         <is>
-          <t>Al Huda G/s</t>
+          <t>AL HUDA G/S</t>
         </is>
       </c>
       <c r="E151" s="45" t="inlineStr">
@@ -13785,7 +14037,7 @@
       <c r="C152" s="16" t="n"/>
       <c r="D152" s="45" t="inlineStr">
         <is>
-          <t>Afsar Utility Store</t>
+          <t>AFSAR UTILITY STORE</t>
         </is>
       </c>
       <c r="E152" s="45" t="inlineStr">
@@ -13868,7 +14120,7 @@
       <c r="C153" s="16" t="n"/>
       <c r="D153" s="45" t="inlineStr">
         <is>
-          <t>Waqas g/s</t>
+          <t>WAQAS G/S</t>
         </is>
       </c>
       <c r="E153" s="45" t="inlineStr">
@@ -13951,7 +14203,7 @@
       <c r="C154" s="16" t="n"/>
       <c r="D154" s="45" t="inlineStr">
         <is>
-          <t>786 Fair Price</t>
+          <t>786 FAIR PRICE</t>
         </is>
       </c>
       <c r="E154" s="45" t="inlineStr">
@@ -14034,7 +14286,7 @@
       <c r="C155" s="17" t="n"/>
       <c r="D155" s="30" t="inlineStr">
         <is>
-          <t>Gillani g/s</t>
+          <t>GILLANI G/S</t>
         </is>
       </c>
       <c r="E155" s="45" t="inlineStr">
@@ -14117,7 +14369,7 @@
       <c r="C156" s="16" t="n"/>
       <c r="D156" s="45" t="inlineStr">
         <is>
-          <t>Al Muddasir Traders</t>
+          <t>AL MUDDASIR TRADERS</t>
         </is>
       </c>
       <c r="E156" s="45" t="inlineStr">
@@ -14200,7 +14452,7 @@
       <c r="C157" s="16" t="n"/>
       <c r="D157" s="45" t="inlineStr">
         <is>
-          <t>Amjad Traders</t>
+          <t>AMJAD TRADERS</t>
         </is>
       </c>
       <c r="E157" s="45" t="inlineStr">
@@ -14283,7 +14535,7 @@
       <c r="C158" s="16" t="n"/>
       <c r="D158" s="45" t="inlineStr">
         <is>
-          <t>Khattak discount G/S</t>
+          <t>KHATTAK DISCOUNT GENERAL STORE</t>
         </is>
       </c>
       <c r="E158" s="45" t="inlineStr">
@@ -14366,7 +14618,7 @@
       <c r="C159" s="16" t="n"/>
       <c r="D159" s="45" t="inlineStr">
         <is>
-          <t>Naseer ahmed g/s</t>
+          <t>NASEER AHMED G/S</t>
         </is>
       </c>
       <c r="E159" s="45" t="inlineStr">
@@ -14449,7 +14701,7 @@
       <c r="C160" s="16" t="n"/>
       <c r="D160" s="45" t="inlineStr">
         <is>
-          <t>Shah  G/S</t>
+          <t>SHAH  GENERAL STORE</t>
         </is>
       </c>
       <c r="E160" s="45" t="inlineStr">
@@ -14532,7 +14784,7 @@
       <c r="C161" s="16" t="n"/>
       <c r="D161" s="45" t="inlineStr">
         <is>
-          <t>Luqman S/S</t>
+          <t>LUQMAN SUPER STORE</t>
         </is>
       </c>
       <c r="E161" s="45" t="inlineStr">
@@ -14615,7 +14867,7 @@
       <c r="C162" s="16" t="n"/>
       <c r="D162" s="45" t="inlineStr">
         <is>
-          <t>Dhanak trd.</t>
+          <t>DHANAK TRD.</t>
         </is>
       </c>
       <c r="E162" s="45" t="inlineStr">
@@ -14698,7 +14950,7 @@
       <c r="C163" s="16" t="n"/>
       <c r="D163" s="45" t="inlineStr">
         <is>
-          <t>Awami Fair Price</t>
+          <t>AWAMI FAIR PRICE</t>
         </is>
       </c>
       <c r="E163" s="45" t="inlineStr">
@@ -14781,7 +15033,7 @@
       <c r="C164" s="16" t="n"/>
       <c r="D164" s="32" t="inlineStr">
         <is>
-          <t>Pakistan Bakers</t>
+          <t>PAKISTAN BAKERS</t>
         </is>
       </c>
       <c r="E164" s="45" t="inlineStr">
@@ -14864,7 +15116,7 @@
       <c r="C165" s="16" t="n"/>
       <c r="D165" s="45" t="inlineStr">
         <is>
-          <t>Fazal Elahi G/S</t>
+          <t>FAZAL ELAHI GENERAL STORE</t>
         </is>
       </c>
       <c r="E165" s="45" t="inlineStr">
@@ -14944,10 +15196,14 @@
         <v>170</v>
       </c>
       <c r="B166" s="41" t="n"/>
-      <c r="C166" s="16" t="n"/>
+      <c r="C166" s="16" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D166" s="30" t="inlineStr">
         <is>
-          <t>Malik G/S</t>
+          <t>MALIK GENERAL STORE</t>
         </is>
       </c>
       <c r="E166" s="45" t="inlineStr">
@@ -15030,7 +15286,7 @@
       <c r="C167" s="16" t="n"/>
       <c r="D167" s="30" t="inlineStr">
         <is>
-          <t>Akash Store</t>
+          <t>AKASH STORE</t>
         </is>
       </c>
       <c r="E167" s="45" t="inlineStr">
@@ -15113,7 +15369,7 @@
       <c r="C168" s="17" t="n"/>
       <c r="D168" s="30" t="inlineStr">
         <is>
-          <t>Siraj Khan G/S</t>
+          <t>SIRAJ KHAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E168" s="45" t="inlineStr">
@@ -15196,7 +15452,7 @@
       <c r="C169" s="17" t="n"/>
       <c r="D169" s="30" t="inlineStr">
         <is>
-          <t>Hassaan C/C</t>
+          <t>HASSAAN CASH AND CARRY</t>
         </is>
       </c>
       <c r="E169" s="45" t="inlineStr">
@@ -15362,7 +15618,7 @@
       <c r="C171" s="16" t="n"/>
       <c r="D171" s="45" t="inlineStr">
         <is>
-          <t>Sarhad G/S</t>
+          <t>SARHAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E171" s="45" t="inlineStr">
@@ -15442,10 +15698,14 @@
         <v>178</v>
       </c>
       <c r="B172" s="41" t="n"/>
-      <c r="C172" s="16" t="n"/>
+      <c r="C172" s="16" t="inlineStr">
+        <is>
+          <t>17201-2089836-5</t>
+        </is>
+      </c>
       <c r="D172" s="45" t="inlineStr">
         <is>
-          <t>Al Noor S/S</t>
+          <t>AL NOOR SUPER STORE</t>
         </is>
       </c>
       <c r="E172" s="45" t="inlineStr">
@@ -15528,7 +15788,7 @@
       <c r="C173" s="16" t="n"/>
       <c r="D173" s="45" t="inlineStr">
         <is>
-          <t>Sardar S/S</t>
+          <t>SARDAR SUPER STORE</t>
         </is>
       </c>
       <c r="E173" s="45" t="inlineStr">
@@ -15611,7 +15871,7 @@
       <c r="C174" s="60" t="n"/>
       <c r="D174" s="32" t="inlineStr">
         <is>
-          <t>Taj Khan Store</t>
+          <t>TAJ KHAN STORE</t>
         </is>
       </c>
       <c r="E174" s="45" t="inlineStr">
@@ -15694,7 +15954,7 @@
       <c r="C175" s="60" t="n"/>
       <c r="D175" s="45" t="inlineStr">
         <is>
-          <t>Ayub Trader</t>
+          <t>AYUB TRADER</t>
         </is>
       </c>
       <c r="E175" s="45" t="inlineStr">
@@ -15943,7 +16203,7 @@
       <c r="C178" s="60" t="n"/>
       <c r="D178" s="45" t="inlineStr">
         <is>
-          <t>Waleed Khattak G/S</t>
+          <t>WALEED KHATTAK GENERAL STORE</t>
         </is>
       </c>
       <c r="E178" s="45" t="inlineStr">
@@ -16026,7 +16286,7 @@
       <c r="C179" s="60" t="n"/>
       <c r="D179" s="45" t="inlineStr">
         <is>
-          <t>A-one G/S</t>
+          <t>A-ONE GENERAL STORE</t>
         </is>
       </c>
       <c r="E179" s="45" t="inlineStr">
@@ -16109,7 +16369,7 @@
       <c r="C180" s="60" t="n"/>
       <c r="D180" s="45" t="inlineStr">
         <is>
-          <t>Bangas S/S</t>
+          <t>BANGAS SUPER STORE</t>
         </is>
       </c>
       <c r="E180" s="45" t="inlineStr">
@@ -16192,7 +16452,7 @@
       <c r="C181" s="60" t="n"/>
       <c r="D181" s="45" t="inlineStr">
         <is>
-          <t>Malik s/s</t>
+          <t>MALIK S/S</t>
         </is>
       </c>
       <c r="E181" s="45" t="inlineStr">
@@ -16275,7 +16535,7 @@
       <c r="C182" s="17" t="n"/>
       <c r="D182" s="30" t="inlineStr">
         <is>
-          <t>Abdullah g/s</t>
+          <t>ABDULLAH G/S</t>
         </is>
       </c>
       <c r="E182" s="45" t="inlineStr">
@@ -16358,7 +16618,7 @@
       <c r="C183" s="17" t="n"/>
       <c r="D183" s="30" t="inlineStr">
         <is>
-          <t>Afzal G/S</t>
+          <t>AFZAL GENERAL STORE</t>
         </is>
       </c>
       <c r="E183" s="45" t="inlineStr">
@@ -16441,7 +16701,7 @@
       <c r="C184" s="60" t="n"/>
       <c r="D184" s="45" t="inlineStr">
         <is>
-          <t>Raza k/s</t>
+          <t>RAZA K/S</t>
         </is>
       </c>
       <c r="E184" s="45" t="inlineStr">
@@ -16521,10 +16781,14 @@
         <v>191</v>
       </c>
       <c r="B185" s="41" t="n"/>
-      <c r="C185" s="60" t="n"/>
+      <c r="C185" s="60" t="inlineStr">
+        <is>
+          <t>37403-2679924-1</t>
+        </is>
+      </c>
       <c r="D185" s="45" t="inlineStr">
         <is>
-          <t>Saleem g/s</t>
+          <t>SALEEM G/S</t>
         </is>
       </c>
       <c r="E185" s="45" t="inlineStr">
@@ -16607,7 +16871,7 @@
       <c r="C186" s="17" t="n"/>
       <c r="D186" s="30" t="inlineStr">
         <is>
-          <t>K. k zai g/s</t>
+          <t>K. K ZAI G/S</t>
         </is>
       </c>
       <c r="E186" s="45" t="inlineStr">
@@ -16690,7 +16954,7 @@
       <c r="C187" s="60" t="n"/>
       <c r="D187" s="45" t="inlineStr">
         <is>
-          <t>Hasnat g/s</t>
+          <t>HASNAT G/S</t>
         </is>
       </c>
       <c r="E187" s="45" t="inlineStr">
@@ -16768,10 +17032,14 @@
         <v>194</v>
       </c>
       <c r="B188" s="41" t="n"/>
-      <c r="C188" s="60" t="n"/>
+      <c r="C188" s="60" t="inlineStr">
+        <is>
+          <t>17301-6715316-3</t>
+        </is>
+      </c>
       <c r="D188" s="45" t="inlineStr">
         <is>
-          <t>Afridi g/s</t>
+          <t>AFRIDI G/S</t>
         </is>
       </c>
       <c r="E188" s="45" t="inlineStr">
@@ -16854,7 +17122,7 @@
       <c r="C189" s="60" t="n"/>
       <c r="D189" s="45" t="inlineStr">
         <is>
-          <t>Awan g/s</t>
+          <t>AWAN G/S</t>
         </is>
       </c>
       <c r="E189" s="45" t="inlineStr">
@@ -16937,7 +17205,7 @@
       <c r="C190" s="60" t="n"/>
       <c r="D190" s="45" t="inlineStr">
         <is>
-          <t>Al makkah g/s</t>
+          <t>AL MAKKAH G/S</t>
         </is>
       </c>
       <c r="E190" s="45" t="inlineStr">
@@ -17020,7 +17288,7 @@
       <c r="C191" s="17" t="n"/>
       <c r="D191" s="30" t="inlineStr">
         <is>
-          <t>Hafiz k/s</t>
+          <t>HAFIZ K/S</t>
         </is>
       </c>
       <c r="E191" s="45" t="inlineStr">
@@ -17100,10 +17368,14 @@
         <v>198</v>
       </c>
       <c r="B192" s="41" t="n"/>
-      <c r="C192" s="60" t="n"/>
+      <c r="C192" s="60" t="inlineStr">
+        <is>
+          <t>42000-0512986-1</t>
+        </is>
+      </c>
       <c r="D192" s="45" t="inlineStr">
         <is>
-          <t>Madina G/S</t>
+          <t>MADINA GENERAL STORE</t>
         </is>
       </c>
       <c r="E192" s="45" t="inlineStr">
@@ -17186,7 +17458,7 @@
       <c r="C193" s="60" t="n"/>
       <c r="D193" s="45" t="inlineStr">
         <is>
-          <t>Ma Shaa ALLAH g/s</t>
+          <t>MA SHAA ALLAH G/S</t>
         </is>
       </c>
       <c r="E193" s="45" t="inlineStr">
@@ -17269,7 +17541,7 @@
       <c r="C194" s="60" t="n"/>
       <c r="D194" s="45" t="inlineStr">
         <is>
-          <t>786 trd.</t>
+          <t>786 TRD.</t>
         </is>
       </c>
       <c r="E194" s="45" t="inlineStr">
@@ -17349,10 +17621,14 @@
         <v>201</v>
       </c>
       <c r="B195" s="41" t="n"/>
-      <c r="C195" s="17" t="n"/>
+      <c r="C195" s="17" t="inlineStr">
+        <is>
+          <t>37405-1019911-7</t>
+        </is>
+      </c>
       <c r="D195" s="30" t="inlineStr">
         <is>
-          <t>Malik G/S</t>
+          <t>MALIK GENERAL STORE</t>
         </is>
       </c>
       <c r="E195" s="45" t="inlineStr">
@@ -17432,10 +17708,14 @@
         <v>202</v>
       </c>
       <c r="B196" s="41" t="n"/>
-      <c r="C196" s="60" t="n"/>
+      <c r="C196" s="60" t="inlineStr">
+        <is>
+          <t>17201-2214026-7</t>
+        </is>
+      </c>
       <c r="D196" s="45" t="inlineStr">
         <is>
-          <t>Insaf G/S</t>
+          <t>INSAF GENERAL STORE</t>
         </is>
       </c>
       <c r="E196" s="45" t="inlineStr">
@@ -17518,7 +17798,7 @@
       <c r="C197" s="60" t="n"/>
       <c r="D197" s="45" t="inlineStr">
         <is>
-          <t>Mama G/S</t>
+          <t>MAMA GENERAL STORE</t>
         </is>
       </c>
       <c r="E197" s="45" t="inlineStr">
@@ -17601,7 +17881,7 @@
       <c r="C198" s="60" t="n"/>
       <c r="D198" s="45" t="inlineStr">
         <is>
-          <t>Khyber Trader</t>
+          <t>KHYBER TRADER</t>
         </is>
       </c>
       <c r="E198" s="45" t="inlineStr">
@@ -17684,7 +17964,7 @@
       <c r="C199" s="60" t="n"/>
       <c r="D199" s="45" t="inlineStr">
         <is>
-          <t>Raja Ijaz G/S</t>
+          <t>RAJA IJAZ GENERAL STORE</t>
         </is>
       </c>
       <c r="E199" s="45" t="inlineStr">
@@ -17767,7 +18047,7 @@
       <c r="C200" s="17" t="n"/>
       <c r="D200" s="30" t="inlineStr">
         <is>
-          <t>New Taj G/S</t>
+          <t>NEW TAJ GENERAL STORE</t>
         </is>
       </c>
       <c r="E200" s="45" t="inlineStr">
@@ -17850,7 +18130,7 @@
       <c r="C201" s="60" t="n"/>
       <c r="D201" s="45" t="inlineStr">
         <is>
-          <t>Mehmand S/S</t>
+          <t>MEHMAND SUPER STORE</t>
         </is>
       </c>
       <c r="E201" s="45" t="inlineStr">
@@ -17933,7 +18213,7 @@
       <c r="C202" s="60" t="n"/>
       <c r="D202" s="45" t="inlineStr">
         <is>
-          <t>Wazir Trader</t>
+          <t>WAZIR TRADER</t>
         </is>
       </c>
       <c r="E202" s="45" t="inlineStr">
@@ -18016,7 +18296,7 @@
       <c r="C203" s="60" t="n"/>
       <c r="D203" s="45" t="inlineStr">
         <is>
-          <t>MARDAN G/S</t>
+          <t>MARDAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E203" s="45" t="inlineStr">
@@ -18098,7 +18378,7 @@
       <c r="C204" s="17" t="n"/>
       <c r="D204" s="30" t="inlineStr">
         <is>
-          <t>SHARJAH G/S</t>
+          <t>SHARJAH GENERAL STORE</t>
         </is>
       </c>
       <c r="E204" s="45" t="inlineStr">
@@ -18264,7 +18544,7 @@
       <c r="C206" s="60" t="n"/>
       <c r="D206" s="45" t="inlineStr">
         <is>
-          <t>ALLAH WARIS G/S</t>
+          <t>ALLAH WARIS GENERAL STORE</t>
         </is>
       </c>
       <c r="E206" s="45" t="inlineStr">
@@ -18430,7 +18710,7 @@
       <c r="C208" s="60" t="n"/>
       <c r="D208" s="45" t="inlineStr">
         <is>
-          <t>Ahmed S/S</t>
+          <t>AHMED SUPER STORE</t>
         </is>
       </c>
       <c r="E208" s="45" t="inlineStr">
@@ -18513,7 +18793,7 @@
       <c r="C209" s="60" t="n"/>
       <c r="D209" s="45" t="inlineStr">
         <is>
-          <t>Usman G/S</t>
+          <t>USMAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E209" s="45" t="inlineStr">
@@ -18593,10 +18873,14 @@
         <v>216</v>
       </c>
       <c r="B210" s="41" t="n"/>
-      <c r="C210" s="60" t="n"/>
+      <c r="C210" s="60" t="inlineStr">
+        <is>
+          <t>17201-9935715-5</t>
+        </is>
+      </c>
       <c r="D210" s="45" t="inlineStr">
         <is>
-          <t>Al Madina G/S</t>
+          <t>AL MADINA GENERAL STORE</t>
         </is>
       </c>
       <c r="E210" s="45" t="inlineStr">
@@ -18676,10 +18960,14 @@
         <v>217</v>
       </c>
       <c r="B211" s="41" t="n"/>
-      <c r="C211" s="60" t="n"/>
+      <c r="C211" s="60" t="inlineStr">
+        <is>
+          <t>17201-9935715-5</t>
+        </is>
+      </c>
       <c r="D211" s="32" t="inlineStr">
         <is>
-          <t>Al Madina G/S</t>
+          <t>AL MADINA GENERAL STORE</t>
         </is>
       </c>
       <c r="E211" s="45" t="inlineStr">
@@ -18760,7 +19048,7 @@
       <c r="C212" s="60" t="n"/>
       <c r="D212" s="32" t="inlineStr">
         <is>
-          <t>Foji G/S</t>
+          <t>FOJI GENERAL STORE</t>
         </is>
       </c>
       <c r="E212" s="45" t="inlineStr">
@@ -18838,10 +19126,14 @@
         <v>219</v>
       </c>
       <c r="B213" s="41" t="n"/>
-      <c r="C213" s="60" t="n"/>
+      <c r="C213" s="60" t="inlineStr">
+        <is>
+          <t>17201-6061189-7</t>
+        </is>
+      </c>
       <c r="D213" s="45" t="inlineStr">
         <is>
-          <t>Khattak G/S</t>
+          <t>KHATTAK GENERAL STORE</t>
         </is>
       </c>
       <c r="E213" s="45" t="inlineStr">
@@ -18922,7 +19214,7 @@
       <c r="C214" s="59" t="n"/>
       <c r="D214" s="45" t="inlineStr">
         <is>
-          <t>Abbas G/S</t>
+          <t>ABBAS GENERAL STORE</t>
         </is>
       </c>
       <c r="E214" s="45" t="inlineStr">
@@ -19005,7 +19297,7 @@
       <c r="C215" s="59" t="n"/>
       <c r="D215" s="45" t="inlineStr">
         <is>
-          <t>Shahid Bros</t>
+          <t>SHAHID BROS</t>
         </is>
       </c>
       <c r="E215" s="45" t="inlineStr">
@@ -19085,10 +19377,14 @@
         <v>222</v>
       </c>
       <c r="B216" s="112" t="n"/>
-      <c r="C216" s="59" t="n"/>
+      <c r="C216" s="59" t="inlineStr">
+        <is>
+          <t>37405-1903710-9</t>
+        </is>
+      </c>
       <c r="D216" s="45" t="inlineStr">
         <is>
-          <t>Islamabad G/S</t>
+          <t>ISLAMABAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E216" s="45" t="inlineStr">
@@ -19168,10 +19464,14 @@
         <v>223</v>
       </c>
       <c r="B217" s="112" t="n"/>
-      <c r="C217" s="59" t="n"/>
+      <c r="C217" s="59" t="inlineStr">
+        <is>
+          <t>37405-5109702-2</t>
+        </is>
+      </c>
       <c r="D217" s="45" t="inlineStr">
         <is>
-          <t>Abbasi Super Mart</t>
+          <t>ABBASI SUPER MART</t>
         </is>
       </c>
       <c r="E217" s="45" t="inlineStr">
@@ -19251,10 +19551,14 @@
         <v>224</v>
       </c>
       <c r="B218" s="112" t="n"/>
-      <c r="C218" s="59" t="n"/>
+      <c r="C218" s="59" t="inlineStr">
+        <is>
+          <t>61101-1824499-9</t>
+        </is>
+      </c>
       <c r="D218" s="45" t="inlineStr">
         <is>
-          <t>Sadaat G/S</t>
+          <t>SADAAT GENERAL STORE</t>
         </is>
       </c>
       <c r="E218" s="45" t="inlineStr">
@@ -19335,7 +19639,7 @@
       <c r="C219" s="59" t="n"/>
       <c r="D219" s="45" t="inlineStr">
         <is>
-          <t>Bilal G/S</t>
+          <t>BILAL GENERAL STORE</t>
         </is>
       </c>
       <c r="E219" s="45" t="inlineStr">
@@ -19400,10 +19704,14 @@
         <v>225</v>
       </c>
       <c r="B220" s="112" t="n"/>
-      <c r="C220" s="59" t="n"/>
+      <c r="C220" s="59" t="inlineStr">
+        <is>
+          <t>37105-0266856-5</t>
+        </is>
+      </c>
       <c r="D220" s="45" t="inlineStr">
         <is>
-          <t>Lasani Rice</t>
+          <t>LASANI RICE</t>
         </is>
       </c>
       <c r="E220" s="45" t="inlineStr">
@@ -19486,7 +19794,7 @@
       <c r="C221" s="59" t="n"/>
       <c r="D221" s="45" t="inlineStr">
         <is>
-          <t>Chaudhry G/S</t>
+          <t>CHAUDHRY GENERAL STORE</t>
         </is>
       </c>
       <c r="E221" s="45" t="inlineStr">
@@ -19566,10 +19874,14 @@
         <v>227</v>
       </c>
       <c r="B222" s="112" t="n"/>
-      <c r="C222" s="59" t="n"/>
+      <c r="C222" s="59" t="inlineStr">
+        <is>
+          <t>61101-7799287-3</t>
+        </is>
+      </c>
       <c r="D222" s="45" t="inlineStr">
         <is>
-          <t>Bismillah Abbasi G/S</t>
+          <t>BISMILLAH ABBASI GENERAL STORE</t>
         </is>
       </c>
       <c r="E222" s="45" t="inlineStr">
@@ -19649,10 +19961,14 @@
         <v>228</v>
       </c>
       <c r="B223" s="112" t="n"/>
-      <c r="C223" s="59" t="n"/>
+      <c r="C223" s="59" t="inlineStr">
+        <is>
+          <t>61101-8353216-7</t>
+        </is>
+      </c>
       <c r="D223" s="45" t="inlineStr">
         <is>
-          <t>Nomi G/S</t>
+          <t>NOMI GENERAL STORE</t>
         </is>
       </c>
       <c r="E223" s="45" t="inlineStr">
@@ -19732,10 +20048,14 @@
         <v>229</v>
       </c>
       <c r="B224" s="112" t="n"/>
-      <c r="C224" s="59" t="n"/>
+      <c r="C224" s="59" t="inlineStr">
+        <is>
+          <t>61101-1862397-3</t>
+        </is>
+      </c>
       <c r="D224" s="45" t="inlineStr">
         <is>
-          <t>Manzoor G/S</t>
+          <t>MANZOOR GENERAL STORE</t>
         </is>
       </c>
       <c r="E224" s="45" t="inlineStr">
@@ -19818,7 +20138,7 @@
       <c r="C225" s="59" t="n"/>
       <c r="D225" s="45" t="inlineStr">
         <is>
-          <t>Nazar G/S</t>
+          <t>NAZAR GENERAL STORE</t>
         </is>
       </c>
       <c r="E225" s="45" t="inlineStr">
@@ -19898,10 +20218,14 @@
         <v>231</v>
       </c>
       <c r="B226" s="112" t="n"/>
-      <c r="C226" s="60" t="n"/>
+      <c r="C226" s="60" t="inlineStr">
+        <is>
+          <t>17201-7935706-3</t>
+        </is>
+      </c>
       <c r="D226" s="45" t="inlineStr">
         <is>
-          <t>M.S G/S</t>
+          <t>M.S GENERAL STORE</t>
         </is>
       </c>
       <c r="E226" s="45" t="inlineStr">
@@ -19984,7 +20308,7 @@
       <c r="C227" s="60" t="n"/>
       <c r="D227" s="45" t="inlineStr">
         <is>
-          <t>Raja jee G/S</t>
+          <t>RAJA JEE GENERAL STORE</t>
         </is>
       </c>
       <c r="E227" s="45" t="inlineStr">
@@ -20064,10 +20388,14 @@
         <v>233</v>
       </c>
       <c r="B228" s="16" t="n"/>
-      <c r="C228" s="60" t="n"/>
+      <c r="C228" s="60" t="inlineStr">
+        <is>
+          <t>17201-2214026-7</t>
+        </is>
+      </c>
       <c r="D228" s="45" t="inlineStr">
         <is>
-          <t>Insaf G/S</t>
+          <t>INSAF GENERAL STORE</t>
         </is>
       </c>
       <c r="E228" s="45" t="inlineStr">
@@ -20147,10 +20475,14 @@
         <v>234</v>
       </c>
       <c r="B229" s="112" t="n"/>
-      <c r="C229" s="60" t="n"/>
+      <c r="C229" s="60" t="inlineStr">
+        <is>
+          <t>61101-2292275-3</t>
+        </is>
+      </c>
       <c r="D229" s="45" t="inlineStr">
         <is>
-          <t>Star G/S</t>
+          <t>STAR GENERAL STORE</t>
         </is>
       </c>
       <c r="E229" s="45" t="inlineStr">
@@ -20230,10 +20562,14 @@
         <v>235</v>
       </c>
       <c r="B230" s="112" t="n"/>
-      <c r="C230" s="60" t="n"/>
+      <c r="C230" s="60" t="inlineStr">
+        <is>
+          <t>17201-3771631-9</t>
+        </is>
+      </c>
       <c r="D230" s="45" t="inlineStr">
         <is>
-          <t>Al Rehman G/S</t>
+          <t>AL REHMAN GENERAL STORE</t>
         </is>
       </c>
       <c r="E230" s="45" t="inlineStr">
@@ -20316,7 +20652,7 @@
       <c r="C231" s="60" t="n"/>
       <c r="D231" s="45" t="inlineStr">
         <is>
-          <t>Qazi G/S</t>
+          <t>QAZI GENERAL STORE</t>
         </is>
       </c>
       <c r="E231" s="45" t="inlineStr">
@@ -20399,7 +20735,7 @@
       <c r="C232" s="60" t="n"/>
       <c r="D232" s="45" t="inlineStr">
         <is>
-          <t>Uzair Khattak G/S</t>
+          <t>UZAIR KHATTAK GENERAL STORE</t>
         </is>
       </c>
       <c r="E232" s="45" t="inlineStr">
@@ -20479,10 +20815,14 @@
         <v>238</v>
       </c>
       <c r="B233" s="112" t="n"/>
-      <c r="C233" s="60" t="n"/>
+      <c r="C233" s="60" t="inlineStr">
+        <is>
+          <t>61101-8202750-5</t>
+        </is>
+      </c>
       <c r="D233" s="45" t="inlineStr">
         <is>
-          <t>New Butt Store</t>
+          <t>NEW BUTT STORE</t>
         </is>
       </c>
       <c r="E233" s="45" t="inlineStr">
@@ -20565,7 +20905,7 @@
       <c r="C234" s="60" t="n"/>
       <c r="D234" s="45" t="inlineStr">
         <is>
-          <t>Zia Bros G/S</t>
+          <t>ZIA BROS GENERAL STORE</t>
         </is>
       </c>
       <c r="E234" s="45" t="inlineStr">
@@ -20645,10 +20985,14 @@
         <v>240</v>
       </c>
       <c r="B235" s="112" t="n"/>
-      <c r="C235" s="60" t="n"/>
+      <c r="C235" s="60" t="inlineStr">
+        <is>
+          <t>17201-2089836-5</t>
+        </is>
+      </c>
       <c r="D235" s="45" t="inlineStr">
         <is>
-          <t>Al Noor Super Store</t>
+          <t>AL NOOR SUPER STORE</t>
         </is>
       </c>
       <c r="E235" s="45" t="inlineStr">
@@ -20728,10 +21072,14 @@
         <v>241</v>
       </c>
       <c r="B236" s="41" t="n"/>
-      <c r="C236" s="60" t="n"/>
+      <c r="C236" s="60" t="inlineStr">
+        <is>
+          <t>17201-7935706-3</t>
+        </is>
+      </c>
       <c r="D236" s="45" t="inlineStr">
         <is>
-          <t>M.S G/S</t>
+          <t>M.S GENERAL STORE</t>
         </is>
       </c>
       <c r="E236" s="45" t="inlineStr">
@@ -20809,10 +21157,14 @@
         <v>242</v>
       </c>
       <c r="B237" s="112" t="n"/>
-      <c r="C237" s="60" t="n"/>
+      <c r="C237" s="60" t="inlineStr">
+        <is>
+          <t>42101-1685425-1</t>
+        </is>
+      </c>
       <c r="D237" s="45" t="inlineStr">
         <is>
-          <t>Arshad G/S</t>
+          <t>ARSHAD GENERAL STORE</t>
         </is>
       </c>
       <c r="E237" s="45" t="inlineStr">
